--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6100" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65C5747-19C6-42DA-90D0-A0EC5F1140B7}"/>
+  <xr:revisionPtr revIDLastSave="6146" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA95450B-AC54-4ACE-86C9-D915B4FDCDB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2019" sheetId="26" r:id="rId7"/>
     <sheet name="2020" sheetId="27" r:id="rId8"/>
     <sheet name="2021" sheetId="28" r:id="rId9"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId12"/>
+    <sheet name="2022" sheetId="31" r:id="rId10"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId12"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="517">
   <si>
     <t>ROUND</t>
   </si>
@@ -1586,6 +1587,15 @@
   </si>
   <si>
     <t>INDIAN WELLS MASTERS</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>SYDNEY INTERNATIONAL</t>
   </si>
 </sst>
 </file>
@@ -2030,15 +2040,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA):</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>YTD Wins-Losses</a:t>
+              <a:t>Sonya Kenin (USA): YTD Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2105,10 +2107,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2136,15 +2138,18 @@
                 <c:pt idx="8">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2172,12 +2177,15 @@
                 <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B762-4BD1-9A52-1B926B241751}"/>
+              <c16:uniqueId val="{00000000-D4FA-43BF-B653-82F0E63CEAE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2207,10 +2215,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2238,15 +2246,18 @@
                 <c:pt idx="8">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2274,12 +2285,15 @@
                 <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B762-4BD1-9A52-1B926B241751}"/>
+              <c16:uniqueId val="{00000001-D4FA-43BF-B653-82F0E63CEAE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2293,11 +2307,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2069899984"/>
-        <c:axId val="2069900400"/>
+        <c:axId val="2033619295"/>
+        <c:axId val="2033618047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2069899984"/>
+        <c:axId val="2033619295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069900400"/>
+        <c:crossAx val="2033618047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069900400"/>
+        <c:axId val="2033618047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,13 +2458,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> OF MATCHES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2514,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069899984"/>
+        <c:crossAx val="2033619295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,16 +2633,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA):</a:t>
+              <a:t>Sonya</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Kenin (USA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Winning Percentile Range</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2727,10 +2733,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2758,15 +2764,18 @@
                 <c:pt idx="8">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -2794,13 +2803,16 @@
                 <c:pt idx="8">
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7AF-420F-B593-33A5FEA20667}"/>
+              <c16:uniqueId val="{00000000-7EF4-41A5-A920-05297A79FB85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2814,11 +2826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292656672"/>
-        <c:axId val="292660832"/>
+        <c:axId val="2033647583"/>
+        <c:axId val="2033643007"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292656672"/>
+        <c:axId val="2033647583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +2928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292660832"/>
+        <c:crossAx val="2033643007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2924,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292660832"/>
+        <c:axId val="2033643007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292656672"/>
+        <c:crossAx val="2033647583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4205,7 +4217,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1803C039-BC9F-4E39-8F38-6E2DBEEE9FD6}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9A12103-3306-4374-B303-4A022C1E68F6}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4217,10 +4229,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5FD2F019-2927-4434-A210-7D89168BDC36}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A9B11A-5972-439D-AFDE-E971F8E0B67A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4232,13 +4244,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8586304" cy="5853043"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914D0E98-D392-48A8-9147-92FBF9CF69EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEFEA14-078C-419B-8F05-487A7E4A98D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4271,7 +4283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B653C9-50D4-48E0-A747-3154CDBAFA82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A600FD-CA5C-4784-AC67-24C37C59FC07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4768,14 +4780,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313BCCD-0992-42CC-9033-BB74973446E8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
@@ -4998,57 +5125,78 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>139</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:E11" si="1">SUM(C2:C10)</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>223</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="F11" s="3">
-        <f>(D11-E11)/D11</f>
-        <v>0.4170403587443946</v>
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <f>AVERAGE(B2:B10)</f>
-        <v>15.444444444444445</v>
+        <f>SUM(B2:B11)</f>
+        <v>141</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:E12" si="2">AVERAGE(C2:C10)</f>
-        <v>0.55555555555555558</v>
+        <f>SUM(C2:C11)</f>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>24.777777777777779</v>
+        <f>SUM(D2:D11)</f>
+        <v>225</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>14.444444444444445</v>
+        <f>SUM(E2:E11)</f>
+        <v>132</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.41704035874439466</v>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>14.1</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>13.2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>(D13-E13)/D13</f>
+        <v>0.41333333333333339</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F10">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -10209,7 +10357,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -10776,10 +10924,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A33" sqref="A33:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11166,6 +11314,54 @@
         <v>193</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>514</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>324</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6146" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA95450B-AC54-4ACE-86C9-D915B4FDCDB7}"/>
+  <xr:revisionPtr revIDLastSave="6155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27150538-463F-4350-A370-A8302ED75258}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="518">
   <si>
     <t>ROUND</t>
   </si>
@@ -1596,6 +1596,9 @@
   </si>
   <si>
     <t>SYDNEY INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-5</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2289,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2807,7 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,7 +4235,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A9B11A-5972-439D-AFDE-E971F8E0B67A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4784,10 +4787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,6 +4891,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4901,8 +4924,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,7 +5152,7 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5138,11 +5161,11 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5151,7 +5174,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5163,11 +5186,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.41333333333333333</v>
+        <v>0.40888888888888891</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,7 +5199,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5188,11 +5211,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.41333333333333339</v>
+        <v>0.40888888888888886</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27150538-463F-4350-A370-A8302ED75258}"/>
+  <xr:revisionPtr revIDLastSave="6176" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FF1555-BAA0-4B5F-A3CE-FF2066B1EC8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="518">
   <si>
     <t>ROUND</t>
   </si>
@@ -2289,7 +2289,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,7 +2807,7 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,17 +4787,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4909,6 +4909,46 @@
       </c>
       <c r="F8" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4924,8 +4964,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,7 +5192,7 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5161,11 +5201,11 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,7 +5214,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5186,11 +5226,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.40888888888888891</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,7 +5239,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5211,11 +5251,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.40888888888888886</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -10381,7 +10421,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10949,8 +10989,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:F35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6176" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FF1555-BAA0-4B5F-A3CE-FF2066B1EC8F}"/>
+  <xr:revisionPtr revIDLastSave="6234" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F48225B3-EAC5-4772-A919-07F424A358D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="534">
   <si>
     <t>ROUND</t>
   </si>
@@ -1599,6 +1599,54 @@
   </si>
   <si>
     <t>7-6(2) 7-5</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Sloane Stephens (USA)</t>
+  </si>
+  <si>
+    <t>6-2 6-7(5) 7-5</t>
+  </si>
+  <si>
+    <t>CINCINNATI MASTERS</t>
+  </si>
+  <si>
+    <t>TENNIS IN THE LAND</t>
+  </si>
+  <si>
+    <t>Dalayna Hewitt (USA)</t>
+  </si>
+  <si>
+    <t>Irina-Camelia Begu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Bernarda Pera (USA)</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-3</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-4</t>
+  </si>
+  <si>
+    <t>JAPAN OPEN</t>
+  </si>
+  <si>
+    <t>Fernanda Contreras Gomez (MEXICO)</t>
+  </si>
+  <si>
+    <t>7-6(7) 6-4</t>
   </si>
 </sst>
 </file>
@@ -1687,15 +1735,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2181,7 +2228,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2336,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,7 +2854,7 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,10 +4834,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" activeCellId="10" sqref="E4 E6 E8 E10 E12 E14 E16 E18 E22 E24 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4845,7 @@
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4949,6 +4996,154 @@
       </c>
       <c r="F12" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>529</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4964,7 +5159,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5192,20 +5387,20 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,7 +5409,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5222,15 +5417,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.4</v>
+        <v>0.3788546255506608</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,7 +5434,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5247,15 +5442,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.4</v>
+        <v>0.3788546255506608</v>
       </c>
     </row>
   </sheetData>
@@ -5768,13 +5963,13 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5782,13 +5977,13 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5796,13 +5991,13 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6280,13 +6475,13 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>143</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6294,13 +6489,13 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6784,13 +6979,13 @@
       <c r="C65" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" t="s">
         <v>197</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7358,13 +7553,13 @@
       <c r="C45" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>197</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7372,13 +7567,13 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" t="s">
         <v>98</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7426,13 +7621,13 @@
       <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" t="s">
         <v>248</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7440,13 +7635,13 @@
       <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" t="s">
         <v>55</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9734,7 +9929,7 @@
       <c r="D42" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6234" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F48225B3-EAC5-4772-A919-07F424A358D8}"/>
+  <xr:revisionPtr revIDLastSave="6298" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB3EBB4-5D4F-4818-A94C-76329F795651}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="2021" sheetId="28" r:id="rId9"/>
     <sheet name="2022" sheetId="31" r:id="rId10"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId12"/>
     <sheet name="Winning Percentile Range" sheetId="33" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="545">
   <si>
     <t>ROUND</t>
   </si>
@@ -1647,6 +1647,39 @@
   </si>
   <si>
     <t>7-6(7) 6-4</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>6-1 1-6 6-4</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-6(6)</t>
+  </si>
+  <si>
+    <t>Malaika Rapolu (USA)</t>
+  </si>
+  <si>
+    <t>Ellen Perez (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Alexis Blokhina (USA)</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>DOW TENNIS CLASSIC</t>
+  </si>
+  <si>
+    <t>Caty McNally (USA)</t>
+  </si>
+  <si>
+    <t>6-3 0-6 6-4</t>
+  </si>
+  <si>
+    <t>OPEN P2I ANGERS ARENA LOIRE</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1768,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1744,6 +1777,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2090,7 +2124,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA): YTD Wins-Losses</a:t>
+              <a:t>Sonya Kenin (USA):</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2228,7 +2270,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +2378,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,7 +2819,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2854,7 +2895,7 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.75</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4356,6 +4397,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4834,15 +4879,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="10" sqref="E4 E6 E8 E10 E12 E14 E16 E18 E22 E24 E26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" activeCellId="14" sqref="E4 E6 E8 E10 E12 E14 E16 E18 E22 E24 E26 E28 E33 E37 E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
@@ -5144,6 +5189,170 @@
       </c>
       <c r="F26" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>541</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>542</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5387,20 +5596,20 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,7 +5618,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5417,15 +5626,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.3788546255506608</v>
+        <v>0.37768240343347642</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5434,7 +5643,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5442,15 +5651,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.3788546255506608</v>
+        <v>0.37768240343347642</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6298" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB3EBB4-5D4F-4818-A94C-76329F795651}"/>
+  <xr:revisionPtr revIDLastSave="6401" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08925E6-2EF9-4BDE-AADF-AC9717E72295}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2020" sheetId="27" r:id="rId8"/>
     <sheet name="2021" sheetId="28" r:id="rId9"/>
     <sheet name="2022" sheetId="31" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId13"/>
+    <sheet name="2023" sheetId="34" r:id="rId11"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="553">
   <si>
     <t>ROUND</t>
   </si>
@@ -1680,6 +1681,30 @@
   </si>
   <si>
     <t>OPEN P2I ANGERS ARENA LOIRE</t>
+  </si>
+  <si>
+    <t>OPEN DE LIMOGES</t>
+  </si>
+  <si>
+    <t>6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>AUCKLAND OPEN</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHINA)</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1793,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1778,6 +1803,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2124,16 +2150,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA):</a:t>
+              <a:t>Sonya</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Kenin (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Wins-Losses</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2199,10 +2222,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2233,15 +2256,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2272,12 +2298,15 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4FA-43BF-B653-82F0E63CEAE7}"/>
+              <c16:uniqueId val="{00000000-DB9A-465B-ADD8-60FF5DB18F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2307,10 +2336,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2341,15 +2370,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2378,14 +2410,17 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4FA-43BF-B653-82F0E63CEAE7}"/>
+              <c16:uniqueId val="{00000001-DB9A-465B-ADD8-60FF5DB18F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2399,11 +2434,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2033619295"/>
-        <c:axId val="2033618047"/>
+        <c:axId val="994365696"/>
+        <c:axId val="994364032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2033619295"/>
+        <c:axId val="994365696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033618047"/>
+        <c:crossAx val="994364032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033618047"/>
+        <c:axId val="994364032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033619295"/>
+        <c:crossAx val="994365696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2725,11 +2760,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya</a:t>
+              <a:t>Sonya Kenin (USA): Winning</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Kenin (USA): Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2824,10 +2859,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2858,15 +2893,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -2895,7 +2933,10 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,7 +2944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EF4-41A5-A920-05297A79FB85}"/>
+              <c16:uniqueId val="{00000001-B3B8-464B-AC1F-C67FCFD5F3E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2917,11 +2958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2033647583"/>
-        <c:axId val="2033643007"/>
+        <c:axId val="1147319104"/>
+        <c:axId val="1147314528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2033647583"/>
+        <c:axId val="1147319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033643007"/>
+        <c:crossAx val="1147314528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3027,7 +3068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033643007"/>
+        <c:axId val="1147314528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033647583"/>
+        <c:crossAx val="1147319104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3792,7 +3833,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3900,11 +3941,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3915,11 +3951,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3951,9 +3982,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4308,7 +4336,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9A12103-3306-4374-B303-4A022C1E68F6}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4320,28 +4348,27 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A9B11A-5972-439D-AFDE-E971F8E0B67A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="7620"/>
+    <xdr:ext cx="8564880" cy="5814060"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEFEA14-078C-419B-8F05-487A7E4A98D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C37CBC-A440-E13A-C08B-DEDCD489DDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,13 +4395,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A600FD-CA5C-4784-AC67-24C37C59FC07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB02D38-FF5C-1D22-A83C-9AC59858C8C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4395,10 +4422,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4707,17 +4730,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4737,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4757,7 +4780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4777,7 +4800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4791,7 +4814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4811,7 +4834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4839,7 +4862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4853,7 +4876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4879,23 +4902,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="14" sqref="E4 E6 E8 E10 E12 E14 E16 E18 E22 E24 E26 E28 E33 E37 E40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4915,7 +4938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -4935,7 +4958,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4949,7 +4972,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>516</v>
       </c>
@@ -4983,7 +5006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5003,7 +5026,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>473</v>
       </c>
@@ -5023,7 +5046,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>513</v>
       </c>
@@ -5043,7 +5066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -5063,7 +5086,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>520</v>
       </c>
@@ -5083,7 +5106,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>523</v>
       </c>
@@ -5103,7 +5126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>524</v>
       </c>
@@ -5123,7 +5146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5137,7 +5160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5151,7 +5174,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5171,7 +5194,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>531</v>
       </c>
@@ -5191,7 +5214,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>534</v>
       </c>
@@ -5211,7 +5234,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5231,7 +5254,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5245,7 +5268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5259,7 +5282,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5273,7 +5296,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>541</v>
       </c>
@@ -5293,7 +5316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5307,7 +5330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5344,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>544</v>
       </c>
@@ -5341,7 +5364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5352,6 +5375,26 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>441</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5362,27 +5405,194 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D9653-3543-4523-AAF5-34AB5EA718BD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5402,7 +5612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -5419,11 +5629,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -5444,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -5465,7 +5675,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -5486,7 +5696,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -5507,7 +5717,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -5528,7 +5738,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -5549,7 +5759,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5570,7 +5780,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -5591,12 +5801,12 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5605,65 +5815,86 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>154</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C2:C11)</f>
+      <c r="B13" s="2">
+        <f>SUM(B2:B12)</f>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C2:C12)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)</f>
-        <v>233</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E11)</f>
-        <v>145</v>
-      </c>
-      <c r="F12" s="3">
-        <f>(D12-E12)/D12</f>
-        <v>0.37768240343347642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>15.4</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.5</v>
-      </c>
       <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>23.3</v>
+        <f>SUM(D2:D12)</f>
+        <v>237</v>
       </c>
       <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
-        <v>14.5</v>
+        <f>SUM(E2:E12)</f>
+        <v>149</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.37768240343347642</v>
+        <v>0.37130801687763715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>14.363636363636363</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>21.545454545454547</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>13.545454545454545</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(D14-E14)/D14</f>
+        <v>0.3713080168776372</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -5688,17 +5919,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5718,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5738,7 +5969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5752,7 +5983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5772,7 +6003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -5792,7 +6023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5806,7 +6037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5826,7 +6057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -5840,7 +6071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -5854,7 +6085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5868,7 +6099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5906,17 +6137,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5936,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -5956,7 +6187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -5976,7 +6207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -5990,7 +6221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6010,7 +6241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -6030,7 +6261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -6044,7 +6275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -6058,7 +6289,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6072,7 +6303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6086,7 +6317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6100,7 +6331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6114,7 +6345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6128,7 +6359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -6148,7 +6379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -6162,7 +6393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -6182,7 +6413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6196,7 +6427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -6210,7 +6441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6230,7 +6461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -6250,7 +6481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6264,7 +6495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -6284,7 +6515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -6298,7 +6529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6312,7 +6543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +6557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6340,7 +6571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -6354,7 +6585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -6410,17 +6641,17 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6440,7 +6671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -6460,7 +6691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6474,7 +6705,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6494,7 +6725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -6508,7 +6739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -6522,7 +6753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -6536,7 +6767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6550,7 +6781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6564,7 +6795,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6592,7 +6823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -6612,7 +6843,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -6632,7 +6863,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -6646,7 +6877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -6660,7 +6891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -6674,7 +6905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -6694,7 +6925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -6708,7 +6939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>513</v>
       </c>
@@ -6728,7 +6959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -6748,7 +6979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -6762,7 +6993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -6776,7 +7007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -6796,7 +7027,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -6816,7 +7047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6830,7 +7061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -6850,7 +7081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -6864,7 +7095,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -6884,7 +7115,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -6898,7 +7129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -6912,7 +7143,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -6932,7 +7163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -6946,7 +7177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -6960,7 +7191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -6974,7 +7205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -6988,7 +7219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -7008,7 +7239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -7028,7 +7259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -7048,7 +7279,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -7068,7 +7299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -7088,7 +7319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -7102,7 +7333,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -7116,7 +7347,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -7130,7 +7361,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -7144,7 +7375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -7164,7 +7395,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -7178,7 +7409,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -7216,17 +7447,17 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7246,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7266,7 +7497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7280,7 +7511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -7300,7 +7531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -7314,7 +7545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7328,7 +7559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -7342,7 +7573,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -7356,7 +7587,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -7376,7 +7607,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -7390,7 +7621,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -7404,7 +7635,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7418,7 +7649,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -7438,7 +7669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -7458,7 +7689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7472,7 +7703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7492,7 +7723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7506,7 +7737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -7520,7 +7751,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -7534,7 +7765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>513</v>
       </c>
@@ -7554,7 +7785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -7574,7 +7805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -7588,7 +7819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -7602,7 +7833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -7622,7 +7853,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -7636,7 +7867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -7656,7 +7887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -7670,7 +7901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -7684,7 +7915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -7698,7 +7929,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -7718,7 +7949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -7738,7 +7969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -7752,7 +7983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -7772,7 +8003,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -7786,7 +8017,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -7806,7 +8037,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -7820,7 +8051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7840,7 +8071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -7854,7 +8085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -7874,7 +8105,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -7894,7 +8125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -7908,7 +8139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -7922,7 +8153,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +8167,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -7950,7 +8181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -7970,7 +8201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -7984,7 +8215,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -7998,7 +8229,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -8012,7 +8243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -8032,7 +8263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -8046,7 +8277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -8060,7 +8291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8074,7 +8305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -8088,7 +8319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -8108,7 +8339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -8122,7 +8353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -8142,7 +8373,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -8162,7 +8393,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -8176,7 +8407,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -8190,7 +8421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -8210,7 +8441,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -8224,7 +8455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -8244,7 +8475,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -8264,7 +8495,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -8284,7 +8515,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -8304,7 +8535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -8318,7 +8549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -8332,7 +8563,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -8346,7 +8577,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -8366,7 +8597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -8380,7 +8611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -8394,7 +8625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -8408,7 +8639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -8428,7 +8659,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -8442,7 +8673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -8456,7 +8687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -8488,17 +8719,17 @@
       <selection activeCell="E89" activeCellId="25" sqref="E4 E6 E8 E11 E14 E19 E25 E27 E31 E33 E35 E37 E39 E46 E49 E58 E61 E64 E67 E71 E76 E82 E84 E86 E88 E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8518,7 +8749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -8538,7 +8769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8552,7 +8783,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -8566,7 +8797,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -8586,7 +8817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -8606,7 +8837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -8626,7 +8857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8640,7 +8871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -8660,7 +8891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8674,7 +8905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>513</v>
       </c>
@@ -8694,7 +8925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -8708,7 +8939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -8722,7 +8953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -8736,7 +8967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -8756,7 +8987,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -8770,7 +9001,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -8784,7 +9015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -8798,7 +9029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8812,7 +9043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -8832,7 +9063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -8852,7 +9083,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -8866,7 +9097,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -8880,7 +9111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>331</v>
       </c>
@@ -8900,7 +9131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -8920,7 +9151,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -8940,7 +9171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -8960,7 +9191,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -8980,7 +9211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8994,7 +9225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -9022,7 +9253,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -9036,7 +9267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9050,7 +9281,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -9070,7 +9301,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -9084,7 +9315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>346</v>
       </c>
@@ -9104,7 +9335,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -9118,7 +9349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -9132,7 +9363,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -9146,7 +9377,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -9160,7 +9391,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>352</v>
       </c>
@@ -9180,7 +9411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -9194,7 +9425,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -9214,7 +9445,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -9228,7 +9459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -9248,7 +9479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -9262,7 +9493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -9282,7 +9513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -9296,7 +9527,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -9316,7 +9547,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -9330,7 +9561,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -9344,7 +9575,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -9364,7 +9595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -9378,7 +9609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -9392,7 +9623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -9406,7 +9637,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>369</v>
       </c>
@@ -9426,7 +9657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9671,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -9454,7 +9685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>376</v>
       </c>
@@ -9502,7 +9733,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>378</v>
       </c>
@@ -9522,7 +9753,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -9539,7 +9770,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>382</v>
       </c>
@@ -9637,17 +9868,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9667,7 +9898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -9687,7 +9918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9701,7 +9932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9715,7 +9946,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9729,7 +9960,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -9743,7 +9974,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -9763,7 +9994,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -9777,7 +10008,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>380</v>
       </c>
@@ -9794,7 +10025,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -9814,7 +10045,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9828,7 +10059,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -9842,7 +10073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>395</v>
       </c>
@@ -9862,7 +10093,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -9876,7 +10107,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -9890,7 +10121,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -9904,7 +10135,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -9918,7 +10149,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
@@ -9938,7 +10169,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9952,7 +10183,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9972,7 +10203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -9992,7 +10223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -10006,7 +10237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -10023,7 +10254,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>331</v>
       </c>
@@ -10043,7 +10274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -10063,7 +10294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10077,7 +10308,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -10091,7 +10322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>335</v>
       </c>
@@ -10111,7 +10342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -10131,7 +10362,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -10145,7 +10376,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10159,7 +10390,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10173,7 +10404,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -10193,7 +10424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -10207,7 +10438,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -10221,7 +10452,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -10235,7 +10466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -10249,7 +10480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>425</v>
       </c>
@@ -10269,7 +10500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -10289,7 +10520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -10303,7 +10534,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>428</v>
       </c>
@@ -10323,7 +10554,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10337,7 +10568,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -10357,7 +10588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -10371,7 +10602,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -10385,7 +10616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -10399,7 +10630,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -10413,7 +10644,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -10433,7 +10664,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -10447,7 +10678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -10461,7 +10692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -10475,7 +10706,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -10489,7 +10720,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -10509,7 +10740,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -10523,7 +10754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -10537,7 +10768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10557,7 +10788,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -10571,7 +10802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -10585,7 +10816,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>439</v>
       </c>
@@ -10605,7 +10836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -10619,7 +10850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -10633,7 +10864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -10647,7 +10878,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -10661,7 +10892,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>369</v>
       </c>
@@ -10681,7 +10912,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -10695,7 +10926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -10709,7 +10940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -10729,7 +10960,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -10743,7 +10974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -10757,7 +10988,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>450</v>
       </c>
@@ -10777,7 +11008,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>453</v>
       </c>
@@ -10791,7 +11022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>455</v>
       </c>
@@ -10824,21 +11055,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10858,7 +11089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -10878,7 +11109,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10892,7 +11123,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -10912,7 +11143,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -10926,7 +11157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10946,7 +11177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10960,7 +11191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +11205,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -10988,7 +11219,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -11002,7 +11233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -11016,7 +11247,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -11030,7 +11261,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -11047,7 +11278,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>423</v>
       </c>
@@ -11058,7 +11289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -11078,7 +11309,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>473</v>
       </c>
@@ -11098,7 +11329,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>475</v>
       </c>
@@ -11118,7 +11349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11132,7 +11363,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -11146,7 +11377,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -11160,7 +11391,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -11174,7 +11405,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -11194,7 +11425,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -11214,7 +11445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -11228,7 +11459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11242,7 +11473,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -11256,7 +11487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>332</v>
       </c>
@@ -11276,7 +11507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -11296,7 +11527,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -11310,7 +11541,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -11324,7 +11555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -11338,7 +11569,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -11352,7 +11583,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -11366,7 +11597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -11397,17 +11628,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11427,7 +11658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -11447,7 +11678,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11461,7 +11692,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -11475,7 +11706,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -11489,7 +11720,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>496</v>
       </c>
@@ -11509,7 +11740,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -11523,7 +11754,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -11537,7 +11768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -11557,7 +11788,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -11571,7 +11802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>501</v>
       </c>
@@ -11591,7 +11822,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -11611,7 +11842,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -11625,7 +11856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -11645,7 +11876,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>507</v>
       </c>
@@ -11665,7 +11896,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>332</v>
       </c>
@@ -11685,7 +11916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -11705,7 +11936,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -11719,7 +11950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -11733,7 +11964,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -11747,7 +11978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -11767,7 +11998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -11781,7 +12012,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -11801,7 +12032,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -11815,7 +12046,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6401" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08925E6-2EF9-4BDE-AADF-AC9717E72295}"/>
+  <xr:revisionPtr revIDLastSave="6432" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB8C9D5-7B03-487F-B3F0-C2C3945DA50E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="555">
   <si>
     <t>ROUND</t>
   </si>
@@ -1705,6 +1705,12 @@
   </si>
   <si>
     <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>LINZ OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2305,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,7 +2419,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,7 +2942,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,7 +4357,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4395,7 +4401,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4422,6 +4428,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4904,8 +4914,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5409,18 +5419,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" activeCellId="2" sqref="E2 E5:E7 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5563,6 +5573,80 @@
       </c>
       <c r="F10" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5578,8 +5662,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5827,20 +5911,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5849,7 +5933,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -5857,15 +5941,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.37130801687763715</v>
+        <v>0.36134453781512604</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5874,7 +5958,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.363636363636363</v>
+        <v>14.636363636363637</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -5882,15 +5966,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.545454545454547</v>
+        <v>21.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.545454545454545</v>
+        <v>13.818181818181818</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.3713080168776372</v>
+        <v>0.36134453781512604</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6432" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB8C9D5-7B03-487F-B3F0-C2C3945DA50E}"/>
+  <xr:revisionPtr revIDLastSave="6464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1824873-42F1-462F-B145-8E7129A0C8F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="558">
   <si>
     <t>ROUND</t>
   </si>
@@ -1711,6 +1711,15 @@
   </si>
   <si>
     <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-0 7-6(5)</t>
+  </si>
+  <si>
+    <t>Storm Sanders (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2314,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2428,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,7 +2951,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5419,10 +5428,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="E2 E5:E7 E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5432,7 +5441,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5647,6 +5656,88 @@
       </c>
       <c r="F17" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5662,8 +5753,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5911,20 +6002,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5933,7 +6024,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -5941,15 +6032,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.36134453781512604</v>
+        <v>0.36099585062240663</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5958,7 +6049,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.636363636363637</v>
+        <v>14.818181818181818</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -5966,15 +6057,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.636363636363637</v>
+        <v>21.90909090909091</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.818181818181818</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.36134453781512604</v>
+        <v>0.36099585062240669</v>
       </c>
     </row>
   </sheetData>
@@ -6694,17 +6785,17 @@
   <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="28" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7 F7">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C35">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7 F7">
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D37 F37">
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1824873-42F1-462F-B145-8E7129A0C8F5}"/>
+  <xr:revisionPtr revIDLastSave="6476" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2006272A-1EBE-4B54-A593-9DC905FBFD9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="560">
   <si>
     <t>ROUND</t>
   </si>
@@ -1720,6 +1720,12 @@
   </si>
   <si>
     <t>Storm Sanders (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>6-1 6-7(5) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2320,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2434,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,10 +5434,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="8" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5441,7 +5447,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5738,6 +5744,40 @@
       </c>
       <c r="F24" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5753,7 +5793,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6002,16 +6042,16 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
@@ -6024,7 +6064,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6032,15 +6072,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.36099585062240663</v>
+        <v>0.35950413223140498</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6049,7 +6089,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.818181818181818</v>
+        <v>14.909090909090908</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6057,15 +6097,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.90909090909091</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14</v>
+        <v>14.090909090909092</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.36099585062240669</v>
+        <v>0.35950413223140493</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6476" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2006272A-1EBE-4B54-A593-9DC905FBFD9A}"/>
+  <xr:revisionPtr revIDLastSave="6484" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8256F281-9226-4293-9773-5FE8E9660982}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="560">
   <si>
     <t>ROUND</t>
   </si>
@@ -2434,7 +2434,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2957,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5434,10 +5434,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="8" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27"/>
+      <selection activeCell="E29" activeCellId="9" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5778,6 +5778,26 @@
       </c>
       <c r="F27" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6042,7 +6062,7 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6051,11 +6071,11 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6064,7 +6084,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6076,11 +6096,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.35950413223140498</v>
+        <v>0.35537190082644626</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6089,7 +6109,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.909090909090908</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6101,11 +6121,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.090909090909092</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35950413223140493</v>
+        <v>0.35537190082644626</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6484" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8256F281-9226-4293-9773-5FE8E9660982}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -5436,8 +5436,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="9" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5813,7 +5813,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6484" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8256F281-9226-4293-9773-5FE8E9660982}"/>
+  <xr:revisionPtr revIDLastSave="6494" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B709BB30-533D-47FB-B9A7-EF4FF765E7E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="560">
   <si>
     <t>ROUND</t>
   </si>
@@ -2434,7 +2434,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2957,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1111111111111111</c:v>
+                  <c:v>-0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,8 +4929,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5434,10 +5434,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" activeCellId="10" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5800,6 +5800,40 @@
         <v>213</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5813,7 +5847,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6062,7 +6096,7 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6071,11 +6105,11 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.1111111111111111</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6084,7 +6118,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6096,11 +6130,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.35537190082644626</v>
+        <v>0.3512396694214876</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6109,7 +6143,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15</v>
+        <v>15.090909090909092</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6121,11 +6155,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.181818181818182</v>
+        <v>14.272727272727273</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35537190082644626</v>
+        <v>0.3512396694214876</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6494" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B709BB30-533D-47FB-B9A7-EF4FF765E7E3}"/>
+  <xr:revisionPtr revIDLastSave="6502" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F97694D-CDF1-49BA-BDCB-37258700B008}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="561">
   <si>
     <t>ROUND</t>
   </si>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>6-1 6-7(5) 6-1</t>
+  </si>
+  <si>
+    <t>Margaux Rouvroy (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2437,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2960,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.22222222222222221</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5434,10 +5437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" activeCellId="10" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" activeCellId="11" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31 A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5832,6 +5835,26 @@
       </c>
       <c r="F32" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>560</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6119,7 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6105,11 +6128,11 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.22222222222222221</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6118,7 +6141,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6130,11 +6153,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.3512396694214876</v>
+        <v>0.34710743801652894</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,7 +6166,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.090909090909092</v>
+        <v>15.181818181818182</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6155,11 +6178,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.272727272727273</v>
+        <v>14.363636363636363</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.3512396694214876</v>
+        <v>0.34710743801652894</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6234" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F48225B3-EAC5-4772-A919-07F424A358D8}"/>
+  <xr:revisionPtr revIDLastSave="6502" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F97694D-CDF1-49BA-BDCB-37258700B008}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2020" sheetId="27" r:id="rId8"/>
     <sheet name="2021" sheetId="28" r:id="rId9"/>
     <sheet name="2022" sheetId="31" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId13"/>
+    <sheet name="2023" sheetId="34" r:id="rId11"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="561">
   <si>
     <t>ROUND</t>
   </si>
@@ -1647,6 +1648,87 @@
   </si>
   <si>
     <t>7-6(7) 6-4</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>6-1 1-6 6-4</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-6(6)</t>
+  </si>
+  <si>
+    <t>Malaika Rapolu (USA)</t>
+  </si>
+  <si>
+    <t>Ellen Perez (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Alexis Blokhina (USA)</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>DOW TENNIS CLASSIC</t>
+  </si>
+  <si>
+    <t>Caty McNally (USA)</t>
+  </si>
+  <si>
+    <t>6-3 0-6 6-4</t>
+  </si>
+  <si>
+    <t>OPEN P2I ANGERS ARENA LOIRE</t>
+  </si>
+  <si>
+    <t>OPEN DE LIMOGES</t>
+  </si>
+  <si>
+    <t>6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>AUCKLAND OPEN</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHINA)</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>LINZ OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-0 7-6(5)</t>
+  </si>
+  <si>
+    <t>Storm Sanders (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>6-1 6-7(5) 6-1</t>
+  </si>
+  <si>
+    <t>Margaux Rouvroy (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1817,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1744,6 +1826,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2090,8 +2174,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA): YTD Wins-Losses</a:t>
+              <a:t>Sonya</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Kenin (USA): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2157,10 +2246,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2191,15 +2280,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2228,14 +2320,17 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4FA-43BF-B653-82F0E63CEAE7}"/>
+              <c16:uniqueId val="{00000000-DB9A-465B-ADD8-60FF5DB18F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2265,10 +2360,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2299,15 +2394,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2336,14 +2434,17 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4FA-43BF-B653-82F0E63CEAE7}"/>
+              <c16:uniqueId val="{00000001-DB9A-465B-ADD8-60FF5DB18F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,11 +2458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2033619295"/>
-        <c:axId val="2033618047"/>
+        <c:axId val="994365696"/>
+        <c:axId val="994364032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2033619295"/>
+        <c:axId val="994365696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033618047"/>
+        <c:crossAx val="994364032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2467,7 +2568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033618047"/>
+        <c:axId val="994364032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033619295"/>
+        <c:crossAx val="994365696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2683,11 +2784,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya</a:t>
+              <a:t>Sonya Kenin (USA): Winning</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Kenin (USA): Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2777,16 +2878,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2817,15 +2917,18 @@
                 <c:pt idx="9">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -2854,7 +2957,10 @@
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.75</c:v>
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,7 +2968,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EF4-41A5-A920-05297A79FB85}"/>
+              <c16:uniqueId val="{00000001-B3B8-464B-AC1F-C67FCFD5F3E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2876,11 +2982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2033647583"/>
-        <c:axId val="2033643007"/>
+        <c:axId val="1147319104"/>
+        <c:axId val="1147314528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2033647583"/>
+        <c:axId val="1147319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +3084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033643007"/>
+        <c:crossAx val="1147314528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2986,7 +3092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033643007"/>
+        <c:axId val="1147314528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033647583"/>
+        <c:crossAx val="1147319104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,7 +3857,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3859,11 +3965,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3874,11 +3975,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3910,9 +4006,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4267,7 +4360,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9A12103-3306-4374-B303-4A022C1E68F6}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4279,28 +4372,27 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A9B11A-5972-439D-AFDE-E971F8E0B67A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="7620"/>
+    <xdr:ext cx="8564880" cy="5814060"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEFEA14-078C-419B-8F05-487A7E4A98D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C37CBC-A440-E13A-C08B-DEDCD489DDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4327,13 +4419,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A600FD-CA5C-4784-AC67-24C37C59FC07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB02D38-FF5C-1D22-A83C-9AC59858C8C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,6 +4446,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4662,17 +4758,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4692,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4712,7 +4808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4732,7 +4828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4746,7 +4842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4766,7 +4862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4780,7 +4876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4794,7 +4890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4808,7 +4904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4834,23 +4930,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="10" sqref="E4 E6 E8 E10 E12 E14 E16 E18 E22 E24 E26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4870,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -4890,7 +4986,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4904,7 +5000,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4918,7 +5014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>516</v>
       </c>
@@ -4938,7 +5034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -4958,7 +5054,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>473</v>
       </c>
@@ -4978,7 +5074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>513</v>
       </c>
@@ -4998,7 +5094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -5018,7 +5114,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>520</v>
       </c>
@@ -5038,7 +5134,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>523</v>
       </c>
@@ -5058,7 +5154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>524</v>
       </c>
@@ -5078,7 +5174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5092,7 +5188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5202,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5126,7 +5222,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>531</v>
       </c>
@@ -5144,6 +5240,190 @@
       </c>
       <c r="F26" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>541</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>542</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>441</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5153,27 +5433,458 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D9653-3543-4523-AAF5-34AB5EA718BD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" activeCellId="11" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31 A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>560</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -5210,11 +5921,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -5235,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -5256,7 +5967,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -5277,7 +5988,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -5298,7 +6009,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -5319,7 +6030,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -5340,7 +6051,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5361,7 +6072,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -5382,79 +6093,100 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>150</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C2:C11)</f>
+      <c r="B13" s="2">
+        <f>SUM(B2:B12)</f>
+        <v>167</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C2:C12)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)</f>
-        <v>227</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E11)</f>
-        <v>141</v>
-      </c>
-      <c r="F12" s="3">
-        <f>(D12-E12)/D12</f>
-        <v>0.3788546255506608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.5</v>
-      </c>
       <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>22.7</v>
+        <f>SUM(D2:D12)</f>
+        <v>242</v>
       </c>
       <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
-        <v>14.1</v>
+        <f>SUM(E2:E12)</f>
+        <v>158</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.3788546255506608</v>
+        <v>0.34710743801652894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>15.181818181818182</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>14.363636363636363</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(D14-E14)/D14</f>
+        <v>0.34710743801652894</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -5479,17 +6211,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5529,7 +6261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5543,7 +6275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5563,7 +6295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -5583,7 +6315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5597,7 +6329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5617,7 +6349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -5631,7 +6363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -5645,7 +6377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5659,7 +6391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5697,17 +6429,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -5747,7 +6479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -5767,7 +6499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -5781,7 +6513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -5801,7 +6533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -5821,7 +6553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +6567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -5849,7 +6581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -5863,7 +6595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5877,7 +6609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -5891,7 +6623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -5905,7 +6637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5919,7 +6651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -5939,7 +6671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -5953,7 +6685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -5973,7 +6705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -5987,7 +6719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -6001,7 +6733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6021,7 +6753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -6041,7 +6773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6055,7 +6787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -6075,7 +6807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -6089,7 +6821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6103,7 +6835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6117,7 +6849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6131,7 +6863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -6145,7 +6877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -6170,17 +6902,17 @@
   <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="28" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7 F7">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C35">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7 F7">
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D37 F37">
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>
@@ -6201,17 +6933,17 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6231,7 +6963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -6251,7 +6983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6265,7 +6997,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6285,7 +7017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -6299,7 +7031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -6313,7 +7045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -6327,7 +7059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6341,7 +7073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6355,7 +7087,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +7101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6383,7 +7115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -6403,7 +7135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -6423,7 +7155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -6437,7 +7169,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -6451,7 +7183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -6465,7 +7197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -6485,7 +7217,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -6499,7 +7231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>513</v>
       </c>
@@ -6519,7 +7251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -6539,7 +7271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -6553,7 +7285,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -6567,7 +7299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -6587,7 +7319,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -6607,7 +7339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6621,7 +7353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -6641,7 +7373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -6655,7 +7387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -6675,7 +7407,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -6689,7 +7421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -6703,7 +7435,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -6723,7 +7455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +7469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -6751,7 +7483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -6765,7 +7497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -6779,7 +7511,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -6799,7 +7531,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -6819,7 +7551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -6839,7 +7571,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -6859,7 +7591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -6879,7 +7611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -6893,7 +7625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -6907,7 +7639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -6921,7 +7653,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -6935,7 +7667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -6955,7 +7687,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -6969,7 +7701,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -7007,17 +7739,17 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7037,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7057,7 +7789,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7071,7 +7803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -7091,7 +7823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -7105,7 +7837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7119,7 +7851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -7133,7 +7865,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -7147,7 +7879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -7167,7 +7899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -7181,7 +7913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -7195,7 +7927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7209,7 +7941,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -7229,7 +7961,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -7249,7 +7981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7263,7 +7995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7283,7 +8015,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7297,7 +8029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -7311,7 +8043,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -7325,7 +8057,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>513</v>
       </c>
@@ -7345,7 +8077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -7365,7 +8097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -7379,7 +8111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -7393,7 +8125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -7413,7 +8145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -7427,7 +8159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -7447,7 +8179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -7461,7 +8193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -7475,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -7489,7 +8221,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -7509,7 +8241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -7529,7 +8261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -7543,7 +8275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -7563,7 +8295,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +8309,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -7597,7 +8329,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -7611,7 +8343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7631,7 +8363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -7645,7 +8377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -7665,7 +8397,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -7685,7 +8417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -7699,7 +8431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -7713,7 +8445,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +8459,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -7741,7 +8473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -7761,7 +8493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -7775,7 +8507,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -7789,7 +8521,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -7803,7 +8535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -7823,7 +8555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -7837,7 +8569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -7851,7 +8583,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -7865,7 +8597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -7879,7 +8611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -7899,7 +8631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -7913,7 +8645,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -7933,7 +8665,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -7953,7 +8685,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -7967,7 +8699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +8713,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -8001,7 +8733,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -8015,7 +8747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -8035,7 +8767,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -8055,7 +8787,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -8075,7 +8807,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -8095,7 +8827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -8109,7 +8841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -8123,7 +8855,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -8137,7 +8869,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -8157,7 +8889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -8171,7 +8903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -8185,7 +8917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -8199,7 +8931,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -8219,7 +8951,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -8233,7 +8965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -8247,7 +8979,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -8279,17 +9011,17 @@
       <selection activeCell="E89" activeCellId="25" sqref="E4 E6 E8 E11 E14 E19 E25 E27 E31 E33 E35 E37 E39 E46 E49 E58 E61 E64 E67 E71 E76 E82 E84 E86 E88 E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8309,7 +9041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -8329,7 +9061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8343,7 +9075,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -8357,7 +9089,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -8377,7 +9109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -8397,7 +9129,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -8417,7 +9149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8431,7 +9163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -8451,7 +9183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8465,7 +9197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>513</v>
       </c>
@@ -8485,7 +9217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -8499,7 +9231,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -8513,7 +9245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -8527,7 +9259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -8547,7 +9279,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -8561,7 +9293,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -8575,7 +9307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -8589,7 +9321,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8603,7 +9335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -8623,7 +9355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -8643,7 +9375,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -8657,7 +9389,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +9403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>331</v>
       </c>
@@ -8691,7 +9423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -8711,7 +9443,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -8731,7 +9463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -8751,7 +9483,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -8771,7 +9503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8785,7 +9517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8799,7 +9531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -8813,7 +9545,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -8827,7 +9559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8841,7 +9573,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -8861,7 +9593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -8875,7 +9607,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>346</v>
       </c>
@@ -8895,7 +9627,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -8909,7 +9641,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +9655,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -8937,7 +9669,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +9683,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>352</v>
       </c>
@@ -8971,7 +9703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -8985,7 +9717,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -9005,7 +9737,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -9019,7 +9751,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -9039,7 +9771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -9053,7 +9785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -9073,7 +9805,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -9087,7 +9819,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -9107,7 +9839,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -9121,7 +9853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -9135,7 +9867,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -9155,7 +9887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -9169,7 +9901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -9197,7 +9929,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>369</v>
       </c>
@@ -9217,7 +9949,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -9231,7 +9963,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -9245,7 +9977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -9259,7 +9991,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -9273,7 +10005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>376</v>
       </c>
@@ -9293,7 +10025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>378</v>
       </c>
@@ -9313,7 +10045,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -9330,7 +10062,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>382</v>
       </c>
@@ -9428,17 +10160,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9458,7 +10190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -9478,7 +10210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9492,7 +10224,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9506,7 +10238,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9520,7 +10252,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -9534,7 +10266,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -9554,7 +10286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -9568,7 +10300,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>380</v>
       </c>
@@ -9585,7 +10317,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -9605,7 +10337,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9619,7 +10351,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -9633,7 +10365,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>395</v>
       </c>
@@ -9653,7 +10385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -9667,7 +10399,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -9681,7 +10413,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -9695,7 +10427,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -9709,7 +10441,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
@@ -9729,7 +10461,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9743,7 +10475,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9763,7 +10495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -9783,7 +10515,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -9797,7 +10529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -9814,7 +10546,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>331</v>
       </c>
@@ -9834,7 +10566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -9854,7 +10586,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9868,7 +10600,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -9882,7 +10614,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>335</v>
       </c>
@@ -9902,7 +10634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -9922,7 +10654,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -9936,7 +10668,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -9950,7 +10682,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -9964,7 +10696,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -9984,7 +10716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -9998,7 +10730,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -10012,7 +10744,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +10758,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -10040,7 +10772,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>425</v>
       </c>
@@ -10060,7 +10792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -10080,7 +10812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -10094,7 +10826,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>428</v>
       </c>
@@ -10114,7 +10846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10128,7 +10860,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -10148,7 +10880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -10162,7 +10894,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -10176,7 +10908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -10190,7 +10922,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -10204,7 +10936,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -10224,7 +10956,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -10238,7 +10970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -10252,7 +10984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -10266,7 +10998,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -10280,7 +11012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -10300,7 +11032,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -10314,7 +11046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +11060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10348,7 +11080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -10362,7 +11094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -10376,7 +11108,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>439</v>
       </c>
@@ -10396,7 +11128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -10410,7 +11142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -10424,7 +11156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -10438,7 +11170,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -10452,7 +11184,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>369</v>
       </c>
@@ -10472,7 +11204,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -10486,7 +11218,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -10500,7 +11232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -10520,7 +11252,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -10534,7 +11266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -10548,7 +11280,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>450</v>
       </c>
@@ -10568,7 +11300,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>453</v>
       </c>
@@ -10582,7 +11314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>455</v>
       </c>
@@ -10615,21 +11347,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10649,7 +11381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -10669,7 +11401,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10683,7 +11415,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -10703,7 +11435,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -10717,7 +11449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10737,7 +11469,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10751,7 +11483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10765,7 +11497,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -10779,7 +11511,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -10793,7 +11525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -10807,7 +11539,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -10821,7 +11553,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -10838,7 +11570,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +11581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -10869,7 +11601,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>473</v>
       </c>
@@ -10889,7 +11621,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>475</v>
       </c>
@@ -10909,7 +11641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -10923,7 +11655,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -10937,7 +11669,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -10951,7 +11683,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -10965,7 +11697,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -10985,7 +11717,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -11005,7 +11737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -11019,7 +11751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -11033,7 +11765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -11047,7 +11779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>332</v>
       </c>
@@ -11067,7 +11799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -11087,7 +11819,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -11101,7 +11833,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -11115,7 +11847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -11129,7 +11861,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -11143,7 +11875,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -11157,7 +11889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -11188,17 +11920,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11218,7 +11950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -11238,7 +11970,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -11252,7 +11984,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -11266,7 +11998,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -11280,7 +12012,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>496</v>
       </c>
@@ -11300,7 +12032,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -11314,7 +12046,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -11328,7 +12060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -11348,7 +12080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -11362,7 +12094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>501</v>
       </c>
@@ -11382,7 +12114,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -11402,7 +12134,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -11416,7 +12148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -11436,7 +12168,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>507</v>
       </c>
@@ -11456,7 +12188,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>332</v>
       </c>
@@ -11476,7 +12208,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -11496,7 +12228,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -11510,7 +12242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -11524,7 +12256,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -11538,7 +12270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -11558,7 +12290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -11572,7 +12304,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -11592,7 +12324,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -11606,7 +12338,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6502" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F97694D-CDF1-49BA-BDCB-37258700B008}"/>
+  <xr:revisionPtr revIDLastSave="6524" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0ACF8DB-4F05-4C93-8DA5-A44616891218}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="565">
   <si>
     <t>ROUND</t>
   </si>
@@ -1729,6 +1729,18 @@
   </si>
   <si>
     <t>Margaux Rouvroy (FRANCE)</t>
+  </si>
+  <si>
+    <t>Irina Falconi (USA)</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-2</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2335,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,7 +2449,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2972,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5437,10 +5449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" activeCellId="11" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31 A34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" activeCellId="12" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29 E32 E34 E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5857,7 +5869,98 @@
         <v>36</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>561</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>464</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>563</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6119,20 +6222,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,7 +6244,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6149,15 +6252,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.34710743801652894</v>
+        <v>0.3588709677419355</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,7 +6269,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.181818181818182</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6174,15 +6277,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22</v>
+        <v>22.545454545454547</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.363636363636363</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.34710743801652894</v>
+        <v>0.3588709677419355</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6524" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0ACF8DB-4F05-4C93-8DA5-A44616891218}"/>
+  <xr:revisionPtr revIDLastSave="6536" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D4B20D-9AD8-4D02-9B4D-D33DEA87F6E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="565">
   <si>
     <t>ROUND</t>
   </si>
@@ -2335,7 +2335,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +2449,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,7 +2972,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,10 +5449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" activeCellId="12" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29 E32 E34 E41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" activeCellId="13" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31 A34 A36 A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5957,6 +5957,40 @@
       </c>
       <c r="F41" t="s">
         <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" t="s">
+        <v>320</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6222,20 +6256,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6244,7 +6278,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6252,15 +6286,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.3588709677419355</v>
+        <v>0.35742971887550201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6269,7 +6303,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.272727272727273</v>
+        <v>15.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6277,15 +6311,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.545454545454547</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.454545454545455</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.3588709677419355</v>
+        <v>0.35742971887550201</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6536" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D4B20D-9AD8-4D02-9B4D-D33DEA87F6E9}"/>
+  <xr:revisionPtr revIDLastSave="6583" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6171220F-850B-4327-9A30-7C671C5AA8A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="2021" sheetId="28" r:id="rId9"/>
     <sheet name="2022" sheetId="31" r:id="rId10"/>
     <sheet name="2023" sheetId="34" r:id="rId11"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Stats" sheetId="1" r:id="rId12"/>
     <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
     <sheet name="Winning Percentile Range" sheetId="38" r:id="rId14"/>
   </sheets>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="574">
   <si>
     <t>ROUND</t>
   </si>
@@ -1041,9 +1041,6 @@
     <t>6-1 4-6 2-0 RETIRED</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>ITALIAN OPEN</t>
   </si>
   <si>
@@ -1401,9 +1398,6 @@
     <t>WTA ELITE TROPHY</t>
   </si>
   <si>
-    <t>Karolína Muchová (CZECH REPUBLIC</t>
-  </si>
-  <si>
     <t>Alison Riske (USA)</t>
   </si>
   <si>
@@ -1741,6 +1735,39 @@
   </si>
   <si>
     <t>6-2 4-6 6-2</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Katie Volynets (USA)</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-4</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>6-4 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Karolína Muchová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Carol Zhao (CANADA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(6) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2264,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2258,7 +2285,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2300,7 +2327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2335,7 +2362,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2372,7 +2399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2414,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2449,7 +2476,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,7 +2873,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2895,7 +2922,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2937,7 +2964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2972,7 +2999,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.125</c:v>
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,8 +4424,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="7620"/>
-    <xdr:ext cx="8564880" cy="5814060"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4458,10 +4485,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4767,17 +4790,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,7 +4968,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4980,7 +5003,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -4989,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5009,7 +5032,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5028,7 +5051,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -5057,18 +5080,18 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -5088,7 +5111,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5108,7 +5131,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -5117,18 +5140,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -5137,18 +5160,18 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -5168,7 +5191,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -5177,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -5191,7 +5214,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -5205,13 +5228,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5225,18 +5248,18 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -5245,18 +5268,18 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -5265,13 +5288,13 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5285,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5299,7 +5322,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -5313,7 +5336,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5327,18 +5350,18 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -5361,7 +5384,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -5375,18 +5398,18 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -5395,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -5420,7 +5443,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -5429,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -5449,10 +5472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="13" sqref="A2 A5 A10 A12 A14 A17 A19 A22 A26 A29 A31 A34 A36 A43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E58" activeCellId="16" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29 E32 E34 E41 E44 E50 E56 E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5460,7 +5483,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -5487,7 +5510,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -5496,7 +5519,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5511,7 +5534,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -5522,7 +5545,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -5531,7 +5554,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5546,7 +5569,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -5567,7 +5590,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5576,13 +5599,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5596,18 +5619,18 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5616,7 +5639,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -5627,7 +5650,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -5636,7 +5659,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5650,7 +5673,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -5661,7 +5684,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -5681,7 +5704,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -5690,7 +5713,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -5704,13 +5727,13 @@
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5724,13 +5747,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,7 +5786,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -5778,7 +5801,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5786,7 +5809,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -5797,7 +5820,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -5806,7 +5829,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -5817,7 +5840,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -5826,13 +5849,13 @@
         <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,7 +5883,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -5880,7 +5903,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -5894,7 +5917,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5922,13 +5945,13 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5936,7 +5959,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -5950,13 +5973,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5970,13 +5993,13 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5990,7 +6013,179 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>532</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>565</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>567</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>569</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>507</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>564</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" t="s">
+        <v>572</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>467</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>369</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6256,20 +6451,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6278,7 +6473,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6286,24 +6481,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.35742971887550201</v>
+        <v>0.36575875486381321</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.363636363636363</v>
+        <v>15.636363636363637</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6311,15 +6506,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.636363636363637</v>
+        <v>23.363636363636363</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.545454545454545</v>
+        <v>14.818181818181818</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35742971887550201</v>
+        <v>0.36575875486381321</v>
       </c>
     </row>
   </sheetData>
@@ -6345,17 +6540,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6563,17 +6758,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7067,17 +7262,17 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7370,7 +7565,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -7873,17 +8068,17 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8196,7 +8391,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -9145,17 +9340,17 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E89" activeCellId="25" sqref="E4 E6 E8 E11 E14 E19 E25 E27 E31 E33 E35 E37 E39 E46 E49 E58 E61 E64 E67 E71 E76 E82 E84 E86 E88 E89"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9336,7 +9531,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -9542,7 +9737,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -9562,7 +9757,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -9571,18 +9766,18 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>333</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -9591,7 +9786,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>17</v>
@@ -9631,7 +9826,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -9645,7 +9840,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -9659,7 +9854,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -9679,7 +9874,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9687,7 +9882,7 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -9707,7 +9902,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -9721,13 +9916,13 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9735,7 +9930,7 @@
         <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>17</v>
@@ -9746,7 +9941,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -9755,7 +9950,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -9797,13 +9992,13 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
         <v>349</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9811,18 +10006,18 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -9831,7 +10026,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -9845,7 +10040,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>17</v>
@@ -9856,7 +10051,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -9865,13 +10060,13 @@
         <v>28</v>
       </c>
       <c r="D60" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>356</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9879,7 +10074,7 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>17</v>
@@ -9913,7 +10108,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>17</v>
@@ -9933,7 +10128,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -9947,13 +10142,13 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
+        <v>360</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>361</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9967,13 +10162,13 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
         <v>363</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9981,7 +10176,7 @@
         <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -10001,7 +10196,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10015,7 +10210,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -10029,7 +10224,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -10043,7 +10238,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -10068,7 +10263,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
@@ -10077,7 +10272,7 @@
         <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
@@ -10091,13 +10286,13 @@
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10105,7 +10300,7 @@
         <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -10125,7 +10320,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -10133,7 +10328,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>17</v>
@@ -10144,7 +10339,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
@@ -10153,7 +10348,7 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>17</v>
@@ -10164,7 +10359,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -10173,41 +10368,41 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -10293,18 +10488,18 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10329,7 +10524,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -10338,7 +10533,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -10366,7 +10561,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -10380,7 +10575,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -10394,7 +10589,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -10414,13 +10609,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10428,18 +10623,18 @@
         <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -10451,12 +10646,12 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -10465,7 +10660,7 @@
         <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -10485,7 +10680,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10493,18 +10688,18 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -10513,13 +10708,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10527,13 +10722,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
         <v>399</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10541,13 +10736,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>401</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10561,7 +10756,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10569,18 +10764,18 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>396</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -10589,13 +10784,13 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,13 +10798,13 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10657,7 +10852,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -10668,24 +10863,24 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>407</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -10705,7 +10900,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -10714,7 +10909,7 @@
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -10728,13 +10923,13 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>410</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10748,12 +10943,12 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -10762,7 +10957,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -10782,13 +10977,13 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
+        <v>414</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
         <v>415</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -10802,7 +10997,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10810,7 +11005,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -10830,7 +11025,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10844,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -10864,7 +11059,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10872,7 +11067,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -10886,13 +11081,13 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
         <v>423</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -10900,18 +11095,18 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
         <v>419</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s">
         <v>247</v>
@@ -10920,7 +11115,7 @@
         <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -10940,7 +11135,7 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -10954,7 +11149,7 @@
         <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>17</v>
@@ -10965,7 +11160,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -10994,12 +11189,12 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -11008,7 +11203,7 @@
         <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -11028,7 +11223,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -11036,7 +11231,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -11050,13 +11245,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11098,7 +11293,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -11112,7 +11307,7 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -11132,7 +11327,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -11140,7 +11335,7 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -11160,13 +11355,13 @@
         <v>41</v>
       </c>
       <c r="D72" t="s">
+        <v>433</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
         <v>434</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -11174,7 +11369,7 @@
         <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -11188,7 +11383,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
@@ -11199,7 +11394,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -11208,7 +11403,7 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -11222,7 +11417,7 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
@@ -11242,12 +11437,12 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
@@ -11256,7 +11451,7 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -11270,7 +11465,7 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
@@ -11284,7 +11479,7 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -11298,13 +11493,13 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
+        <v>440</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
         <v>441</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -11312,18 +11507,18 @@
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -11332,13 +11527,13 @@
         <v>227</v>
       </c>
       <c r="D86" t="s">
+        <v>443</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
         <v>444</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -11346,13 +11541,13 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -11371,7 +11566,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
@@ -11380,13 +11575,13 @@
         <v>227</v>
       </c>
       <c r="D90" t="s">
+        <v>446</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
         <v>447</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,7 +11589,7 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>16</v>
@@ -11408,41 +11603,41 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D94" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>16</v>
@@ -11453,22 +11648,22 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -11484,18 +11679,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11520,7 +11715,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -11529,13 +11724,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11549,12 +11744,12 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -11563,13 +11758,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11597,7 +11792,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -11631,7 +11826,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11639,13 +11834,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11673,7 +11868,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11681,35 +11876,35 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -11720,7 +11915,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -11729,18 +11924,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -11749,18 +11944,18 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -11769,7 +11964,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -11783,13 +11978,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11797,13 +11992,13 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11817,7 +12012,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11825,13 +12020,13 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11845,13 +12040,13 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11879,7 +12074,7 @@
         <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -11899,7 +12094,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11907,7 +12102,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -11918,7 +12113,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -11927,7 +12122,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -11947,13 +12142,13 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11961,13 +12156,13 @@
         <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11995,7 +12190,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12009,7 +12204,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12031,7 +12226,7 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
@@ -12053,18 +12248,18 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12089,7 +12284,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -12098,13 +12293,13 @@
         <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12112,13 +12307,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12126,13 +12321,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -12140,18 +12335,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -12160,13 +12355,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12180,7 +12375,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12188,7 +12383,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -12208,7 +12403,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -12222,7 +12417,7 @@
         <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -12233,7 +12428,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -12242,13 +12437,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12262,13 +12457,13 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12302,12 +12497,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -12316,7 +12511,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -12327,7 +12522,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -12336,7 +12531,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -12356,13 +12551,13 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -12370,7 +12565,7 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -12398,7 +12593,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -12418,7 +12613,7 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -12432,7 +12627,7 @@
         <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
@@ -12443,7 +12638,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -12452,7 +12647,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -12472,7 +12667,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6583" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6171220F-850B-4327-9A30-7C671C5AA8A1}"/>
+  <xr:revisionPtr revIDLastSave="6584" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E4119A-2CDC-4AC9-BA15-4BDAB369A267}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -4402,7 +4402,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4414,7 +4414,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4485,6 +4485,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4789,21 +4793,21 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4967,21 +4971,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>511</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>518</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>521</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5223,7 +5227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5257,7 +5261,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>529</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>539</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>542</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5474,21 +5478,21 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" activeCellId="16" sqref="E3 E8 E10 E12 E15 E17 E20 E24 E27 E29 E32 E34 E41 E44 E50 E56 E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>547</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5543,7 +5547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5578,7 +5582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5593,7 +5597,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5608,7 +5612,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>551</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>552</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5682,7 +5686,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>511</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>563</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>532</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>564</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6203,20 +6207,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -6492,7 +6496,7 @@
         <v>0.36575875486381321</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>510</v>
       </c>
@@ -6539,21 +6543,21 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6607,7 +6611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -6757,21 +6761,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6791,7 +6795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6811,7 +6815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -6831,7 +6835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6927,7 +6931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7105,7 +7109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7119,7 +7123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7139,7 +7143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7261,21 +7265,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7329,7 +7333,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7391,7 +7395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7447,7 +7451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7563,7 +7567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -7985,7 +7989,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8067,21 +8071,21 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8121,7 +8125,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8169,7 +8173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8245,7 +8249,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8347,7 +8351,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8443,7 +8447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8477,7 +8481,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8511,7 +8515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8539,7 +8543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8553,7 +8557,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -8749,7 +8753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -8777,7 +8781,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -8853,7 +8857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -8887,7 +8891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8929,7 +8933,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -8977,7 +8981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9079,7 +9083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9099,7 +9103,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9119,7 +9123,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9159,7 +9163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9187,7 +9191,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9201,7 +9205,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9339,21 +9343,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9373,7 +9377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9393,7 +9397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9441,7 +9445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9481,7 +9485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9495,7 +9499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -9549,7 +9553,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -9591,7 +9595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -9625,7 +9629,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -9639,7 +9643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -9687,7 +9691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -9707,7 +9711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -9755,7 +9759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -9775,7 +9779,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -9795,7 +9799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -9835,7 +9839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9849,7 +9853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -9877,7 +9881,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -9891,7 +9895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -9925,7 +9929,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -9939,7 +9943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -9959,7 +9963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -9973,7 +9977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -9987,7 +9991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10001,7 +10005,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10049,7 +10053,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10069,7 +10073,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10137,7 +10141,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10151,7 +10155,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10247,7 +10251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10261,7 +10265,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10323,7 +10327,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10377,7 +10381,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10488,21 +10492,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10556,7 +10560,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10570,7 +10574,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -10584,7 +10588,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10632,7 +10636,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -10669,7 +10673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10683,7 +10687,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10717,7 +10721,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +10735,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -10745,7 +10749,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -10773,7 +10777,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>511</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10847,7 +10851,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -10861,7 +10865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -10878,7 +10882,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10918,7 +10922,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11014,7 +11018,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11028,7 +11032,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11048,7 +11052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11062,7 +11066,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11124,7 +11128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11158,7 +11162,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11226,7 +11230,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11240,7 +11244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11268,7 +11272,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11288,7 +11292,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11302,7 +11306,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11316,7 +11320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11344,7 +11348,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11364,7 +11368,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11392,7 +11396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11412,7 +11416,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11474,7 +11478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11536,7 +11540,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11550,7 +11554,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -11598,7 +11602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -11632,7 +11636,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -11646,7 +11650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -11679,21 +11683,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -11767,7 +11771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -11857,7 +11861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -11913,7 +11917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -11953,7 +11957,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -11973,7 +11977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11987,7 +11991,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12001,7 +12005,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12049,7 +12053,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12069,7 +12073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12083,7 +12087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12097,7 +12101,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12111,7 +12115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12131,7 +12135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12165,7 +12169,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12193,7 +12197,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12207,7 +12211,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12248,21 +12252,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>489</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12316,7 +12320,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>494</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12378,7 +12382,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12392,7 +12396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>499</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12466,7 +12470,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12480,7 +12484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12588,7 +12592,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -12602,7 +12606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -12636,7 +12640,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -12656,7 +12660,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12670,7 +12674,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6584" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E4119A-2CDC-4AC9-BA15-4BDAB369A267}"/>
+  <xr:revisionPtr revIDLastSave="6596" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA713C8-B603-48CF-AEA1-9D35175DDC49}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="577">
   <si>
     <t>ROUND</t>
   </si>
@@ -1768,6 +1768,15 @@
   </si>
   <si>
     <t>6-4 6-7(6) 6-1</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>6-3 6-7(1) 7-5</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2371,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2485,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,7 +3008,7 @@
                   <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29166666666666669</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,7 +4411,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4414,7 +4423,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4793,7 +4802,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4971,7 +4980,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5476,10 +5485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5487,7 +5496,7 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6190,6 +6199,34 @@
       </c>
       <c r="F58" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>574</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>576</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6207,7 +6244,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,20 +6492,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6477,7 +6514,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6485,15 +6522,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.36575875486381321</v>
+        <v>0.36434108527131781</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6539,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.636363636363637</v>
+        <v>15.727272727272727</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6510,15 +6547,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>23.363636363636363</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.818181818181818</v>
+        <v>14.909090909090908</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.36575875486381321</v>
+        <v>0.36434108527131781</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +6580,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6761,7 +6798,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -7265,7 +7302,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -8071,7 +8108,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9343,7 +9380,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -10492,7 +10529,7 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -11683,7 +11720,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -12252,7 +12289,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6596" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA713C8-B603-48CF-AEA1-9D35175DDC49}"/>
+  <xr:revisionPtr revIDLastSave="6597" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B583C9-3EE2-4573-8601-0DC9B275732F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -4411,7 +4411,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4423,7 +4423,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4802,21 +4802,21 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4980,21 +4980,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>511</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>518</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>521</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>529</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>539</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>542</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5487,21 +5487,21 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>547</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5556,7 +5556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5591,7 +5591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5606,7 +5606,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5621,7 +5621,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>551</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>552</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>511</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>563</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>532</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>564</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>574</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>576</v>
       </c>
@@ -6244,20 +6244,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>0.36434108527131781</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>510</v>
       </c>
@@ -6580,21 +6580,21 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -6798,21 +6798,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7302,21 +7302,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8108,21 +8108,21 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9380,21 +9380,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10529,21 +10529,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>511</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -11720,21 +11720,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12289,21 +12289,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>489</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>494</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>499</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6597" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B583C9-3EE2-4573-8601-0DC9B275732F}"/>
+  <xr:revisionPtr revIDLastSave="6599" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D69555-81EB-46B9-8035-345CCEBB9FD5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4803,7 +4803,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4981,7 +4981,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,8 +5487,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6244,7 +6244,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6581,7 +6581,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6799,7 +6799,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7303,7 +7303,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8109,7 +8109,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9381,7 +9381,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10530,7 +10530,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11721,7 +11721,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12290,7 +12290,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6599" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D69555-81EB-46B9-8035-345CCEBB9FD5}"/>
+  <xr:revisionPtr revIDLastSave="6645" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E371BC-1F14-47E8-BD5D-EA4AE3421198}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2021" sheetId="28" r:id="rId9"/>
     <sheet name="2022" sheetId="31" r:id="rId10"/>
     <sheet name="2023" sheetId="34" r:id="rId11"/>
-    <sheet name="Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId14"/>
+    <sheet name="2024" sheetId="39" r:id="rId12"/>
+    <sheet name="Stats" sheetId="1" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="40" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="41" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="578">
   <si>
     <t>ROUND</t>
   </si>
@@ -1777,6 +1778,9 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Arina Rodionova (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2294,10 +2298,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2331,15 +2335,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2373,12 +2380,15 @@
                 <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB9A-465B-ADD8-60FF5DB18F8C}"/>
+              <c16:uniqueId val="{00000000-5048-434F-8969-D1BB479EB796}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,10 +2418,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2445,15 +2455,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2487,12 +2500,15 @@
                 <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB9A-465B-ADD8-60FF5DB18F8C}"/>
+              <c16:uniqueId val="{00000001-5048-434F-8969-D1BB479EB796}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2506,11 +2522,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="994365696"/>
-        <c:axId val="994364032"/>
+        <c:axId val="1648884112"/>
+        <c:axId val="1532973376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="994365696"/>
+        <c:axId val="1648884112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994364032"/>
+        <c:crossAx val="1532973376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2616,7 +2632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994364032"/>
+        <c:axId val="1532973376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994365696"/>
+        <c:crossAx val="1648884112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2832,11 +2848,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya Kenin (USA): Winning</a:t>
+              <a:t>Sonya</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Percentile Range</a:t>
+              <a:t> Kenin (USA): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2931,10 +2947,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2968,15 +2984,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -3010,13 +3029,16 @@
                 <c:pt idx="10">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3B8-464B-AC1F-C67FCFD5F3E4}"/>
+              <c16:uniqueId val="{00000000-A831-4700-B513-7F63291F3F64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3030,11 +3052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1147319104"/>
-        <c:axId val="1147314528"/>
+        <c:axId val="1541097008"/>
+        <c:axId val="15640128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1147319104"/>
+        <c:axId val="1541097008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,7 +3154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147314528"/>
+        <c:crossAx val="15640128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3140,7 +3162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147314528"/>
+        <c:axId val="15640128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147319104"/>
+        <c:crossAx val="1541097008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4408,7 +4430,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6512B2BB-19E1-493C-9F4A-59A902DBCC04}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{716596F6-03E2-4379-90A2-C069B5B6CF72}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4419,28 +4452,17 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8651488" cy="6272561"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C37CBC-A440-E13A-C08B-DEDCD489DDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D956ED06-1D93-3F58-F8FC-A1FC6393B373}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4467,13 +4489,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB02D38-FF5C-1D22-A83C-9AC59858C8C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4497BE9F-69C6-2A52-95D9-639E9A542F7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,18 +4824,18 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4980,18 +5002,18 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5487,18 +5509,18 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6237,24 +6259,91 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217316AE-FB2F-4CDB-AE6C-C650725ED0B1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A13 F1:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,7 +6383,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F13" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
@@ -6509,57 +6598,78 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>173</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>258</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>164</v>
-      </c>
-      <c r="F13" s="3">
-        <f>(D13-E13)/D13</f>
-        <v>0.36434108527131781</v>
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>510</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <f>AVERAGE(B2:B12)</f>
-        <v>15.727272727272727</v>
+        <f>SUM(B2:B13)</f>
+        <v>174</v>
       </c>
       <c r="C14" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>0.45454545454545453</v>
+        <f>SUM(C2:C13)</f>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>23.454545454545453</v>
+        <f>SUM(D2:D13)</f>
+        <v>258</v>
       </c>
       <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>14.909090909090908</v>
+        <f>SUM(E2:E13)</f>
+        <v>165</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.36434108527131781</v>
+        <v>0.36046511627906974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>14.5</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>13.75</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(D15-E15)/D15</f>
+        <v>0.36046511627906974</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6580,18 +6690,18 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,18 +6908,18 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7302,18 +7412,18 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8108,18 +8218,18 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9380,18 +9490,18 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10529,18 +10639,18 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11720,18 +11830,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12289,18 +12399,18 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6645" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E371BC-1F14-47E8-BD5D-EA4AE3421198}"/>
+  <xr:revisionPtr revIDLastSave="6646" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B01F7C-E14B-408C-959F-1B5FCEFDFA78}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -4433,7 +4433,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6512B2BB-19E1-493C-9F4A-59A902DBCC04}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4824,18 +4824,18 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,18 +5002,18 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5509,18 +5509,18 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6332,18 +6332,18 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A13 F1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6690,18 +6690,18 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6908,18 +6908,18 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7412,18 +7412,18 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8218,18 +8218,18 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9490,18 +9490,18 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10639,18 +10639,18 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11830,18 +11830,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12399,18 +12399,18 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6646" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B01F7C-E14B-408C-959F-1B5FCEFDFA78}"/>
+  <xr:revisionPtr revIDLastSave="6647" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D059606-F8C9-4CDC-96B6-005625C3371E}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -4518,10 +4518,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4828,17 +4824,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4858,7 +4854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4932,7 +4928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4974,7 +4970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5006,17 +5002,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5056,7 +5052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -5104,7 +5100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5144,7 +5140,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>511</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>518</v>
       </c>
@@ -5204,7 +5200,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>521</v>
       </c>
@@ -5224,7 +5220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5258,7 +5254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5292,7 +5288,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>529</v>
       </c>
@@ -5312,7 +5308,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5352,7 +5348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>539</v>
       </c>
@@ -5414,7 +5410,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>542</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5476,7 +5472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5513,17 +5509,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>547</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5578,7 +5574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5613,7 +5609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5628,7 +5624,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5643,7 +5639,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5663,7 +5659,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>551</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>552</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5717,7 +5713,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5737,7 +5733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>511</v>
       </c>
@@ -5757,7 +5753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5771,7 +5767,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5805,7 +5801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5853,7 +5849,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>563</v>
       </c>
@@ -5873,7 +5869,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5893,7 +5889,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5947,7 +5943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6037,7 +6033,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>532</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6113,7 +6109,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>564</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6189,7 +6185,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6203,7 +6199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>574</v>
       </c>
@@ -6240,7 +6236,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>576</v>
       </c>
@@ -6269,17 +6265,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6336,17 +6332,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6366,7 +6362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6429,7 +6425,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6471,7 +6467,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6513,7 +6509,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6534,7 +6530,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6597,7 +6593,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -6618,7 +6614,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>0.36046511627906974</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>510</v>
       </c>
@@ -6694,17 +6690,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6724,7 +6720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -6744,7 +6740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -6812,7 +6808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -6832,7 +6828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -6846,7 +6842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6860,7 +6856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -6912,17 +6908,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6942,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -6982,7 +6978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7016,7 +7012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7036,7 +7032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7064,7 +7060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7078,7 +7074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7092,7 +7088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7106,7 +7102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7120,7 +7116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7154,7 +7150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7168,7 +7164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7188,7 +7184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7202,7 +7198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7216,7 +7212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7236,7 +7232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7304,7 +7300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7318,7 +7314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7416,17 +7412,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7446,7 +7442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7466,7 +7462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7480,7 +7476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7528,7 +7524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7598,7 +7594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7638,7 +7634,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7652,7 +7648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7700,7 +7696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7714,7 +7710,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -7734,7 +7730,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -7768,7 +7764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -7782,7 +7778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -7802,7 +7798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -7822,7 +7818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -7856,7 +7852,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -7870,7 +7866,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -7890,7 +7886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -7938,7 +7934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -7952,7 +7948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -7966,7 +7962,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8014,7 +8010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8034,7 +8030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8054,7 +8050,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8108,7 +8104,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8150,7 +8146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8170,7 +8166,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8184,7 +8180,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8222,17 +8218,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8252,7 +8248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8272,7 +8268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8282,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8334,7 +8330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8348,7 +8344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8362,7 +8358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8396,7 +8392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8410,7 +8406,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8424,7 +8420,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8444,7 +8440,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8540,7 +8536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8628,7 +8624,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8676,7 +8672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8724,7 +8720,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -8860,7 +8856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -8900,7 +8896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -8928,7 +8924,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8976,7 +8972,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9018,7 +9014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9066,7 +9062,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9128,7 +9124,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9168,7 +9164,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9182,7 +9178,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9196,7 +9192,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9216,7 +9212,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9230,7 +9226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9270,7 +9266,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9338,7 +9334,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9352,7 +9348,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9372,7 +9368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9400,7 +9396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9414,7 +9410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9434,7 +9430,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9462,7 +9458,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9494,17 +9490,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9524,7 +9520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9544,7 +9540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9572,7 +9568,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9612,7 +9608,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9666,7 +9662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -9700,7 +9696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9714,7 +9710,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -9728,7 +9724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -9742,7 +9738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9762,7 +9758,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -9776,7 +9772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -9790,7 +9786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9804,7 +9800,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9818,7 +9814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -9838,7 +9834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -9858,7 +9854,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -9886,7 +9882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -9926,7 +9922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -9966,7 +9962,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -9986,7 +9982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10000,7 +9996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10014,7 +10010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10076,7 +10072,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10110,7 +10106,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10124,7 +10120,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10138,7 +10134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10200,7 +10196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10220,7 +10216,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10254,7 +10250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10268,7 +10264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10288,7 +10284,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10336,7 +10332,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10350,7 +10346,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10384,7 +10380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10398,7 +10394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10412,7 +10408,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10432,7 +10428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10446,7 +10442,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10508,7 +10504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10528,7 +10524,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10545,7 +10541,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10643,17 +10639,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10673,7 +10669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10693,7 +10689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10721,7 +10717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -10735,7 +10731,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -10749,7 +10745,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10769,7 +10765,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10783,7 +10779,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -10800,7 +10796,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -10820,7 +10816,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10848,7 +10844,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -10882,7 +10878,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -10896,7 +10892,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -10910,7 +10906,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -10924,7 +10920,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>511</v>
       </c>
@@ -10944,7 +10940,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11029,7 +11025,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>563</v>
       </c>
@@ -11049,7 +11045,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11069,7 +11065,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11083,7 +11079,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11097,7 +11093,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11117,7 +11113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11137,7 +11133,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11151,7 +11147,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11165,7 +11161,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11179,7 +11175,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11199,7 +11195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11213,7 +11209,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11227,7 +11223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11241,7 +11237,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11255,7 +11251,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11275,7 +11271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11295,7 +11291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11309,7 +11305,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11329,7 +11325,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11343,7 +11339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11363,7 +11359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11377,7 +11373,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11391,7 +11387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11405,7 +11401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11419,7 +11415,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11439,7 +11435,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11481,7 +11477,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11495,7 +11491,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11515,7 +11511,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11529,7 +11525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11543,7 +11539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11563,7 +11559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11577,7 +11573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11591,7 +11587,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11625,7 +11621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11639,7 +11635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11653,7 +11649,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11667,7 +11663,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11687,7 +11683,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11701,7 +11697,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -11715,7 +11711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -11735,7 +11731,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -11749,7 +11745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -11763,7 +11759,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -11783,7 +11779,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -11834,17 +11830,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -11884,7 +11880,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11898,7 +11894,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -11918,7 +11914,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11952,7 +11948,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -11980,7 +11976,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -11994,7 +11990,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12008,7 +12004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12022,7 +12018,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12036,7 +12032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12053,7 +12049,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12064,7 +12060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12084,7 +12080,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12104,7 +12100,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12124,7 +12120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12138,7 +12134,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12152,7 +12148,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12166,7 +12162,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12200,7 +12196,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12220,7 +12216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12234,7 +12230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12248,7 +12244,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12262,7 +12258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12282,7 +12278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12302,7 +12298,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12316,7 +12312,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12330,7 +12326,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12344,7 +12340,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12358,7 +12354,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12372,7 +12368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12403,17 +12399,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12433,7 +12429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>489</v>
       </c>
@@ -12453,7 +12449,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12467,7 +12463,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>494</v>
       </c>
@@ -12515,7 +12511,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12529,7 +12525,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12543,7 +12539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12563,7 +12559,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12577,7 +12573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>499</v>
       </c>
@@ -12597,7 +12593,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12617,7 +12613,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12631,7 +12627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12651,7 +12647,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -12671,7 +12667,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12691,7 +12687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -12711,7 +12707,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -12725,7 +12721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12739,7 +12735,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -12753,7 +12749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -12807,7 +12803,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12821,7 +12817,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6647" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D059606-F8C9-4CDC-96B6-005625C3371E}"/>
+  <xr:revisionPtr revIDLastSave="6683" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F287598-16A4-4DB9-9375-7DFDD8693572}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="581">
   <si>
     <t>ROUND</t>
   </si>
@@ -1781,6 +1781,15 @@
   </si>
   <si>
     <t>Arina Rodionova (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 6-3 </t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2390,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2501,7 +2510,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,7 +3039,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4442,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6512B2BB-19E1-493C-9F4A-59A902DBCC04}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4444,7 +4453,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{716596F6-03E2-4379-90A2-C069B5B6CF72}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4456,7 +4465,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8651488" cy="6272561"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4489,7 +4498,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4518,10 +4527,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4559,7 +4572,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4665,7 +4678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4807,7 +4820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4820,8 +4833,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,8 +5011,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,8 +5518,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6259,9 +6272,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6315,6 +6328,40 @@
         <v>465</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6329,7 +6376,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,20 +6645,20 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="e">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6620,7 +6667,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6628,15 +6675,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.36046511627906974</v>
+        <v>0.35907335907335908</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,7 +6692,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.5</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6653,15 +6700,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>21.5</v>
+        <v>21.583333333333332</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.75</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.36046511627906974</v>
+        <v>0.35907335907335902</v>
       </c>
     </row>
   </sheetData>
@@ -6686,8 +6733,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6904,8 +6951,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7408,8 +7455,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8214,8 +8261,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9486,8 +9533,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10635,8 +10682,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11826,8 +11873,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12395,8 +12442,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6683" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F287598-16A4-4DB9-9375-7DFDD8693572}"/>
+  <xr:revisionPtr revIDLastSave="6692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5956AB-3EA9-4FBC-BB44-283FF4CBE23E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="582">
   <si>
     <t>ROUND</t>
   </si>
@@ -1790,6 +1790,9 @@
   </si>
   <si>
     <t xml:space="preserve">6-3 6-3 </t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2513,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,7 +3042,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5518,8 +5521,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,17 +6275,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -6360,6 +6363,26 @@
       </c>
       <c r="F5" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +6668,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6654,11 +6677,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6667,7 +6690,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6679,11 +6702,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35907335907335908</v>
+        <v>0.35521235521235522</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6692,7 +6715,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.583333333333334</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6704,11 +6727,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.833333333333334</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.35907335907335902</v>
+        <v>0.35521235521235522</v>
       </c>
     </row>
   </sheetData>
@@ -11874,7 +11897,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5956AB-3EA9-4FBC-BB44-283FF4CBE23E}"/>
+  <xr:revisionPtr revIDLastSave="6703" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20EF5AE-D11A-46D9-B25A-3B36D05F6AA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="583">
   <si>
     <t>ROUND</t>
   </si>
@@ -1516,9 +1516,6 @@
     <t>6-4 4-6 6-0</t>
   </si>
   <si>
-    <t>ABU DHABI WOMEN'S TENNIS OPEN</t>
-  </si>
-  <si>
     <t>Yulia Putintseva (KAZAKHSTAN)</t>
   </si>
   <si>
@@ -1793,6 +1790,12 @@
   </si>
   <si>
     <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-1</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2516,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,7 +3045,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,9 +4538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4575,7 +4578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4681,7 +4684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4823,7 +4826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5059,7 +5062,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5079,7 +5082,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,7 +5101,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -5133,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,7 +5161,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5187,18 +5190,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>516</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -5207,18 +5210,18 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>519</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -5247,7 +5250,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -5261,7 +5264,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -5275,13 +5278,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
+        <v>524</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>525</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5295,18 +5298,18 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>527</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -5315,18 +5318,18 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>530</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -5341,7 +5344,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5355,7 +5358,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5369,7 +5372,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -5383,7 +5386,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5397,18 +5400,18 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -5445,18 +5448,18 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
+        <v>539</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
         <v>540</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -5566,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5601,7 +5604,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5616,7 +5619,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -5637,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,13 +5649,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5672,12 +5675,12 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5686,7 +5689,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -5760,7 +5763,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -5780,7 +5783,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5794,13 +5797,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,7 +5836,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -5848,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5856,7 +5859,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -5867,7 +5870,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -5876,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -5902,7 +5905,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5930,7 +5933,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -5950,7 +5953,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -5964,7 +5967,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5998,7 +6001,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6006,7 +6009,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -6026,7 +6029,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,7 +6068,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -6088,13 +6091,13 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
         <v>565</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6102,7 +6105,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -6116,13 +6119,13 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,18 +6133,18 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -6150,7 +6153,7 @@
         <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -6198,7 +6201,7 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,7 +6240,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -6249,12 +6252,12 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
@@ -6275,20 +6278,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6325,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -6348,7 +6351,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6356,13 +6359,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>578</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6385,27 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6668,7 +6691,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6677,11 +6700,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6690,7 +6713,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6702,20 +6725,20 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35521235521235522</v>
+        <v>0.35135135135135137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.666666666666666</v>
+        <v>14.75</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6727,11 +6750,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.916666666666666</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.35521235521235522</v>
+        <v>0.35135135135135132</v>
       </c>
     </row>
   </sheetData>
@@ -7782,7 +7805,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -8608,7 +8631,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -9748,7 +9771,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -9954,7 +9977,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -10992,7 +11015,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -11097,7 +11120,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -11840,7 +11863,7 @@
         <v>451</v>
       </c>
       <c r="D94" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>17</v>
@@ -12466,12 +12489,12 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -12501,7 +12524,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -12516,7 +12539,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12530,7 +12553,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12538,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -12558,12 +12581,12 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -12572,13 +12595,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>495</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12592,7 +12615,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12620,7 +12643,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -12645,7 +12668,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -12654,13 +12677,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>500</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12674,13 +12697,13 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>502</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12714,12 +12737,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -12728,7 +12751,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -12748,7 +12771,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -12782,7 +12805,7 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -12830,7 +12853,7 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -12864,7 +12887,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -12884,7 +12907,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6703" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20EF5AE-D11A-46D9-B25A-3B36D05F6AA4}"/>
+  <xr:revisionPtr revIDLastSave="6710" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62203FF-8D17-4FA7-BDC3-B85F589BBF77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="18825" yWindow="4440" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="583">
   <si>
     <t>ROUND</t>
   </si>
@@ -2516,7 +2516,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,7 +3045,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,8 +5524,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,10 +6278,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,6 +6406,23 @@
       </c>
       <c r="F9" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6691,7 +6708,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6700,11 +6717,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,7 +6730,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6725,11 +6742,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.35135135135135137</v>
+        <v>0.34749034749034752</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,7 +6755,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.75</v>
+        <v>14.833333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6750,11 +6767,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14</v>
+        <v>14.083333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.35135135135135132</v>
+        <v>0.34749034749034741</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6710" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62203FF-8D17-4FA7-BDC3-B85F589BBF77}"/>
+  <xr:revisionPtr revIDLastSave="6719" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C20D76-F09B-40DC-95CF-A41F415D7EFB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18825" yWindow="4440" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="586">
   <si>
     <t>ROUND</t>
   </si>
@@ -1796,6 +1796,15 @@
   </si>
   <si>
     <t>3-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>Sorana Cîrstea (ROMANIA)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 7-5</t>
+  </si>
+  <si>
+    <t>6-3 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2525,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,7 +3054,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5525,7 +5534,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,18 +6287,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -6423,6 +6432,29 @@
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6708,7 +6740,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6717,11 +6749,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6730,7 +6762,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6742,11 +6774,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.34749034749034752</v>
+        <v>0.34362934362934361</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,7 +6787,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.833333333333334</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6767,11 +6799,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.083333333333334</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.34749034749034741</v>
+        <v>0.34362934362934361</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6719" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C20D76-F09B-40DC-95CF-A41F415D7EFB}"/>
+  <xr:revisionPtr revIDLastSave="6727" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B33C8E6-1204-46A5-BA55-2E6AC3BE5D6B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="587">
   <si>
     <t>ROUND</t>
   </si>
@@ -1805,6 +1805,9 @@
   </si>
   <si>
     <t>6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>Viktoriya Tomova (BULGARIA)</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2528,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,7 +3057,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,9 +4550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4587,7 +4590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4693,7 +4696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4835,7 +4838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6287,10 +6290,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,6 +6458,26 @@
       </c>
       <c r="F13" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +6763,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6749,11 +6772,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,7 +6785,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6774,11 +6797,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.34362934362934361</v>
+        <v>0.33976833976833976</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6787,7 +6810,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>14.916666666666666</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6799,11 +6822,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.166666666666666</v>
+        <v>14.25</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.34362934362934361</v>
+        <v>0.33976833976833976</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6727" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B33C8E6-1204-46A5-BA55-2E6AC3BE5D6B}"/>
+  <xr:revisionPtr revIDLastSave="6739" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B1C4B1-1EBB-4860-95CD-ED45BA08ABAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="588">
   <si>
     <t>ROUND</t>
   </si>
@@ -1808,6 +1808,9 @@
   </si>
   <si>
     <t>Viktoriya Tomova (BULGARIA)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2531,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3060,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,10 +4548,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4855,17 +4854,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5033,17 +5032,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5540,17 +5539,17 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5605,7 +5604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5640,7 +5639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5655,7 +5654,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5670,7 +5669,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6290,23 +6289,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6478,6 +6477,46 @@
       </c>
       <c r="F15" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6497,17 +6536,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6527,7 +6566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6548,7 +6587,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6569,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6590,7 +6629,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6611,7 +6650,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6632,7 +6671,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6653,7 +6692,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6674,7 +6713,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6695,7 +6734,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6716,7 +6755,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6737,7 +6776,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6758,12 +6797,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6772,20 +6811,20 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6797,20 +6836,20 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.33976833976833976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.33204633204633205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6822,11 +6861,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.25</v>
+        <v>14.416666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.33976833976833976</v>
+        <v>0.33204633204633205</v>
       </c>
     </row>
   </sheetData>
@@ -6855,17 +6894,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6885,7 +6924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -6905,7 +6944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6919,7 +6958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -6939,7 +6978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6959,7 +6998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -6973,7 +7012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -6993,7 +7032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7007,7 +7046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7021,7 +7060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7035,7 +7074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7073,17 +7112,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7123,7 +7162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7143,7 +7182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7157,7 +7196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7177,7 +7216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7197,7 +7236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7211,7 +7250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7225,7 +7264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7239,7 +7278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7253,7 +7292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7267,7 +7306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7281,7 +7320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7295,7 +7334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7315,7 +7354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7329,7 +7368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7349,7 +7388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7363,7 +7402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7377,7 +7416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7397,7 +7436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7417,7 +7456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7431,7 +7470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7451,7 +7490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7465,7 +7504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7479,7 +7518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7493,7 +7532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7507,7 +7546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7521,7 +7560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7577,17 +7616,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7607,7 +7646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7627,7 +7666,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7641,7 +7680,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7661,7 +7700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7675,7 +7714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7689,7 +7728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7703,7 +7742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7717,7 +7756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7731,7 +7770,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7745,7 +7784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7759,7 +7798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7779,7 +7818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7799,7 +7838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7813,7 +7852,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7827,7 +7866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7841,7 +7880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7861,7 +7900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7875,7 +7914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -7895,7 +7934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7915,7 +7954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -7929,7 +7968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -7943,7 +7982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -7963,7 +8002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -7983,7 +8022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -7997,7 +8036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8017,7 +8056,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8070,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8051,7 +8090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +8104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8079,7 +8118,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8099,7 +8138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8113,7 +8152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8127,7 +8166,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8141,7 +8180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8155,7 +8194,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8175,7 +8214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8195,7 +8234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8215,7 +8254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8235,7 +8274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8255,7 +8294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8269,7 +8308,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8283,7 +8322,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8297,7 +8336,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +8350,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8331,7 +8370,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8345,7 +8384,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8383,17 +8422,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8413,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8433,7 +8472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8447,7 +8486,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8467,7 +8506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8481,7 +8520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8495,7 +8534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8509,7 +8548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8523,7 +8562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8543,7 +8582,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8557,7 +8596,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8571,7 +8610,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8585,7 +8624,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8605,7 +8644,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8625,7 +8664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8639,7 +8678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8659,7 +8698,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8673,7 +8712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8687,7 +8726,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8701,7 +8740,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -8721,7 +8760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8741,7 +8780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8755,7 +8794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8769,7 +8808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8789,7 +8828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8803,7 +8842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8823,7 +8862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8851,7 +8890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8865,7 +8904,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8885,7 +8924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -8905,7 +8944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8919,7 +8958,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -8939,7 +8978,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -8953,7 +8992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -8973,7 +9012,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -8987,7 +9026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9007,7 +9046,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9021,7 +9060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9041,7 +9080,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9061,7 +9100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9075,7 +9114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9089,7 +9128,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9103,7 +9142,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9117,7 +9156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9137,7 +9176,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9151,7 +9190,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9165,7 +9204,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9179,7 +9218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9199,7 +9238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9213,7 +9252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9227,7 +9266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9241,7 +9280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +9294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9275,7 +9314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9289,7 +9328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9309,7 +9348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9329,7 +9368,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9343,7 +9382,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9357,7 +9396,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9377,7 +9416,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9391,7 +9430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9411,7 +9450,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9431,7 +9470,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9451,7 +9490,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9471,7 +9510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9485,7 +9524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9499,7 +9538,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9513,7 +9552,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9533,7 +9572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9547,7 +9586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9561,7 +9600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9575,7 +9614,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9595,7 +9634,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9609,7 +9648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9623,7 +9662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9655,17 +9694,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9685,7 +9724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9705,7 +9744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9719,7 +9758,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9733,7 +9772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9753,7 +9792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9773,7 +9812,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9793,7 +9832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9807,7 +9846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9827,7 +9866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9841,7 +9880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -9861,7 +9900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9875,7 +9914,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -9889,7 +9928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -9903,7 +9942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9923,7 +9962,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -9937,7 +9976,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -9951,7 +9990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -9965,7 +10004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9979,7 +10018,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -9999,7 +10038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10019,7 +10058,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10033,7 +10072,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10047,7 +10086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10067,7 +10106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10087,7 +10126,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10107,7 +10146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10127,7 +10166,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10147,7 +10186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10161,7 +10200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10189,7 +10228,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10203,7 +10242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10217,7 +10256,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10237,7 +10276,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10251,7 +10290,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10271,7 +10310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10285,7 +10324,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10299,7 +10338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10313,7 +10352,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10327,7 +10366,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10347,7 +10386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10361,7 +10400,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10381,7 +10420,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10395,7 +10434,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10415,7 +10454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10429,7 +10468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10449,7 +10488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10463,7 +10502,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10483,7 +10522,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10497,7 +10536,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10511,7 +10550,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10531,7 +10570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10545,7 +10584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10559,7 +10598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10573,7 +10612,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10593,7 +10632,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10607,7 +10646,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10621,7 +10660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10635,7 +10674,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10649,7 +10688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10669,7 +10708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10689,7 +10728,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10706,7 +10745,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10804,17 +10843,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10834,7 +10873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10854,7 +10893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10868,7 +10907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10882,7 +10921,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -10896,7 +10935,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -10910,7 +10949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10930,7 +10969,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -10944,7 +10983,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -10961,7 +11000,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -10981,7 +11020,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10995,7 +11034,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11009,7 +11048,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11029,7 +11068,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11043,7 +11082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11057,7 +11096,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11071,7 +11110,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11085,7 +11124,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11105,7 +11144,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11119,7 +11158,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11139,7 +11178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11159,7 +11198,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11173,7 +11212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11190,7 +11229,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11210,7 +11249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11230,7 +11269,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11244,7 +11283,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11258,7 +11297,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11278,7 +11317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11298,7 +11337,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11312,7 +11351,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11326,7 +11365,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11340,7 +11379,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11360,7 +11399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11374,7 +11413,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11388,7 +11427,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11402,7 +11441,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11416,7 +11455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11436,7 +11475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11456,7 +11495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11470,7 +11509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11490,7 +11529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11504,7 +11543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11524,7 +11563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11538,7 +11577,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11552,7 +11591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11566,7 +11605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11580,7 +11619,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11600,7 +11639,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11614,7 +11653,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11628,7 +11667,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11642,7 +11681,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11656,7 +11695,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11676,7 +11715,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11690,7 +11729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11704,7 +11743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11724,7 +11763,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11738,7 +11777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11752,7 +11791,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11772,7 +11811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11786,7 +11825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11800,7 +11839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11814,7 +11853,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11828,7 +11867,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11848,7 +11887,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11862,7 +11901,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -11876,7 +11915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -11896,7 +11935,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -11910,7 +11949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -11924,7 +11963,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -11944,7 +11983,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -11958,7 +11997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -11995,17 +12034,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12025,7 +12064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12045,7 +12084,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12059,7 +12098,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12079,7 +12118,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12093,7 +12132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12113,7 +12152,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12127,7 +12166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12141,7 +12180,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12155,7 +12194,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12169,7 +12208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12183,7 +12222,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12197,7 +12236,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12214,7 +12253,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12225,7 +12264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12245,7 +12284,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12265,7 +12304,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12285,7 +12324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12299,7 +12338,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12313,7 +12352,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12327,7 +12366,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12341,7 +12380,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12361,7 +12400,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12381,7 +12420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12395,7 +12434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12409,7 +12448,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12423,7 +12462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12443,7 +12482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12463,7 +12502,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12477,7 +12516,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12491,7 +12530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12505,7 +12544,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12519,7 +12558,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12533,7 +12572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12564,17 +12603,17 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12594,7 +12633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -12614,7 +12653,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12628,7 +12667,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12642,7 +12681,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12656,7 +12695,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -12676,7 +12715,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12690,7 +12729,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12704,7 +12743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12724,7 +12763,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12738,7 +12777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -12758,7 +12797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12778,7 +12817,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12792,7 +12831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12812,7 +12851,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -12832,7 +12871,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12852,7 +12891,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -12872,7 +12911,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -12886,7 +12925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12900,7 +12939,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -12914,7 +12953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12934,7 +12973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -12948,7 +12987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -12968,7 +13007,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12982,7 +13021,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6739" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B1C4B1-1EBB-4860-95CD-ED45BA08ABAD}"/>
+  <xr:revisionPtr revIDLastSave="6748" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0A57BC-545B-49A7-9E5A-D86E8EF91B1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="588">
   <si>
     <t>ROUND</t>
   </si>
@@ -2531,7 +2531,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +3060,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,6 +4548,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6289,20 +6293,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6517,6 +6521,26 @@
       </c>
       <c r="F19" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6802,7 +6826,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6811,11 +6835,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6824,7 +6848,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6836,11 +6860,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.33204633204633205</v>
+        <v>0.3281853281853282</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6849,7 +6873,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.166666666666666</v>
+        <v>15.25</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6861,11 +6885,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.416666666666666</v>
+        <v>14.5</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.33204633204633205</v>
+        <v>0.32818532818532814</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6748" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0A57BC-545B-49A7-9E5A-D86E8EF91B1A}"/>
+  <xr:revisionPtr revIDLastSave="6765" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F198E31-B18D-4478-AD71-52D6024D9F22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="590">
   <si>
     <t>ROUND</t>
   </si>
@@ -1811,6 +1811,12 @@
   </si>
   <si>
     <t>6-2 4-6 6-3</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Rebecca Šramková (SLOVAKIA)</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2417,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2537,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +3066,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9</c:v>
+                  <c:v>-2.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,10 +4554,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4858,17 +4860,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5036,17 +5038,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5066,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5543,17 +5545,17 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5608,7 +5610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5643,7 +5645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5658,7 +5660,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5673,7 +5675,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5767,7 +5769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5957,7 +5959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6293,23 +6295,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E25" activeCellId="10" sqref="E2 E5 E7 E9 E11 E13 E15 E17 E19 E21 E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>555</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>562</v>
       </c>
@@ -6541,6 +6543,54 @@
       </c>
       <c r="F21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6560,17 +6610,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6611,7 +6661,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6632,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6653,7 +6703,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6674,7 +6724,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6695,7 +6745,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6716,7 +6766,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6737,7 +6787,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6758,7 +6808,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6779,7 +6829,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6800,7 +6850,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6821,34 +6871,34 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6856,24 +6906,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.3281853281853282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.32950191570881227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.25</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6881,15 +6931,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>21.583333333333332</v>
+        <v>21.75</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.5</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.32818532818532814</v>
+        <v>0.32950191570881221</v>
       </c>
     </row>
   </sheetData>
@@ -6918,17 +6968,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +6998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -6968,7 +7018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -6982,7 +7032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7022,7 +7072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -7036,7 +7086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7056,7 +7106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7070,7 +7120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7084,7 +7134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7136,17 +7186,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7166,7 +7216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7186,7 +7236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7206,7 +7256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7220,7 +7270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7240,7 +7290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7260,7 +7310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7274,7 +7324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7288,7 +7338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7316,7 +7366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7330,7 +7380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7344,7 +7394,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7358,7 +7408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7378,7 +7428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7392,7 +7442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7412,7 +7462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7426,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7440,7 +7490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7460,7 +7510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7480,7 +7530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7494,7 +7544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7514,7 +7564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7528,7 +7578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7542,7 +7592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7570,7 +7620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7584,7 +7634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7640,17 +7690,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7690,7 +7740,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7704,7 +7754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7724,7 +7774,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7738,7 +7788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7752,7 +7802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7766,7 +7816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7780,7 +7830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7794,7 +7844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7808,7 +7858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7822,7 +7872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7842,7 +7892,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7862,7 +7912,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7876,7 +7926,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7890,7 +7940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7904,7 +7954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7924,7 +7974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7938,7 +7988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -7958,7 +8008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7978,7 +8028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -7992,7 +8042,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -8006,7 +8056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -8026,7 +8076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8046,7 +8096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -8060,7 +8110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8080,7 +8130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8094,7 +8144,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8114,7 +8164,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8128,7 +8178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8142,7 +8192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8162,7 +8212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8176,7 +8226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8190,7 +8240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8204,7 +8254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8218,7 +8268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8238,7 +8288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8258,7 +8308,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8278,7 +8328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8298,7 +8348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8318,7 +8368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8332,7 +8382,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8346,7 +8396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8360,7 +8410,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8374,7 +8424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8394,7 +8444,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8408,7 +8458,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8446,17 +8496,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8496,7 +8546,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8510,7 +8560,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8530,7 +8580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8544,7 +8594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8558,7 +8608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8572,7 +8622,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8636,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8606,7 +8656,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8620,7 +8670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8634,7 +8684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8648,7 +8698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8668,7 +8718,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8688,7 +8738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8702,7 +8752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8722,7 +8772,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8736,7 +8786,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8750,7 +8800,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8764,7 +8814,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -8784,7 +8834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8804,7 +8854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8818,7 +8868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8832,7 +8882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8852,7 +8902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8866,7 +8916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8886,7 +8936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +8950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8914,7 +8964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8928,7 +8978,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -8948,7 +8998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -8968,7 +9018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8982,7 +9032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -9002,7 +9052,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9016,7 +9066,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -9036,7 +9086,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -9050,7 +9100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9070,7 +9120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9084,7 +9134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9104,7 +9154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9124,7 +9174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9138,7 +9188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9152,7 +9202,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9166,7 +9216,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9180,7 +9230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9200,7 +9250,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9214,7 +9264,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9228,7 +9278,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9242,7 +9292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9262,7 +9312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9276,7 +9326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9290,7 +9340,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9304,7 +9354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9318,7 +9368,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9338,7 +9388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9352,7 +9402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9372,7 +9422,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9392,7 +9442,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9406,7 +9456,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9420,7 +9470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9440,7 +9490,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9454,7 +9504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9474,7 +9524,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9494,7 +9544,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9514,7 +9564,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9534,7 +9584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9548,7 +9598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9562,7 +9612,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9576,7 +9626,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9596,7 +9646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9610,7 +9660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9624,7 +9674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9638,7 +9688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9658,7 +9708,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9672,7 +9722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9686,7 +9736,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9718,17 +9768,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9748,7 +9798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9768,7 +9818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9782,7 +9832,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9796,7 +9846,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9816,7 +9866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9836,7 +9886,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9856,7 +9906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9870,7 +9920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9890,7 +9940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9904,7 +9954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -9924,7 +9974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9938,7 +9988,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -9952,7 +10002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -9966,7 +10016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -9986,7 +10036,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -10000,7 +10050,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -10014,7 +10064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10028,7 +10078,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -10042,7 +10092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -10062,7 +10112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10082,7 +10132,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10096,7 +10146,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10110,7 +10160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10130,7 +10180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10150,7 +10200,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10170,7 +10220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10190,7 +10240,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10210,7 +10260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10224,7 +10274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10238,7 +10288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10252,7 +10302,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10266,7 +10316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10280,7 +10330,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10300,7 +10350,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10314,7 +10364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10334,7 +10384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10348,7 +10398,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10362,7 +10412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10376,7 +10426,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10390,7 +10440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10410,7 +10460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +10474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10444,7 +10494,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10458,7 +10508,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10478,7 +10528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10492,7 +10542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10512,7 +10562,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10526,7 +10576,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10546,7 +10596,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10560,7 +10610,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10574,7 +10624,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10594,7 +10644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10608,7 +10658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10622,7 +10672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10636,7 +10686,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10656,7 +10706,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10670,7 +10720,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10684,7 +10734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10698,7 +10748,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10712,7 +10762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10732,7 +10782,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10752,7 +10802,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10769,7 +10819,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10867,17 +10917,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10897,7 +10947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10917,7 +10967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10931,7 +10981,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +10995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -10959,7 +11009,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -10973,7 +11023,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10993,7 +11043,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11007,7 +11057,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -11024,7 +11074,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -11044,7 +11094,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11058,7 +11108,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11072,7 +11122,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11092,7 +11142,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11106,7 +11156,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11120,7 +11170,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11134,7 +11184,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11148,7 +11198,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11168,7 +11218,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11182,7 +11232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11202,7 +11252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11222,7 +11272,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11236,7 +11286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11253,7 +11303,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11273,7 +11323,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11293,7 +11343,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11307,7 +11357,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11321,7 +11371,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11341,7 +11391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11361,7 +11411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11375,7 +11425,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11389,7 +11439,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11403,7 +11453,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11423,7 +11473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11437,7 +11487,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11451,7 +11501,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11465,7 +11515,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11479,7 +11529,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11499,7 +11549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11519,7 +11569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11533,7 +11583,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11553,7 +11603,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11567,7 +11617,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11587,7 +11637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11601,7 +11651,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11615,7 +11665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11629,7 +11679,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11643,7 +11693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11663,7 +11713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11677,7 +11727,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11691,7 +11741,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11705,7 +11755,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11719,7 +11769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11739,7 +11789,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11753,7 +11803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11767,7 +11817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11787,7 +11837,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11801,7 +11851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11815,7 +11865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11835,7 +11885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11849,7 +11899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11863,7 +11913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11877,7 +11927,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11891,7 +11941,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11911,7 +11961,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11925,7 +11975,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -11939,7 +11989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -11959,7 +12009,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -11973,7 +12023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -11987,7 +12037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -12007,7 +12057,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -12021,7 +12071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -12058,17 +12108,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12088,7 +12138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12108,7 +12158,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12122,7 +12172,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12142,7 +12192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12156,7 +12206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12176,7 +12226,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12190,7 +12240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12204,7 +12254,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12218,7 +12268,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12232,7 +12282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12246,7 +12296,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12260,7 +12310,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12277,7 +12327,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12288,7 +12338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12308,7 +12358,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12328,7 +12378,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12348,7 +12398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12362,7 +12412,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12376,7 +12426,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12390,7 +12440,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12404,7 +12454,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12424,7 +12474,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12444,7 +12494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12458,7 +12508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12472,7 +12522,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12486,7 +12536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12506,7 +12556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12526,7 +12576,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12540,7 +12590,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12554,7 +12604,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12568,7 +12618,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12582,7 +12632,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12596,7 +12646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12627,17 +12677,17 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12657,7 +12707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -12677,7 +12727,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12691,7 +12741,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12705,7 +12755,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12719,7 +12769,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -12739,7 +12789,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12753,7 +12803,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12767,7 +12817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12787,7 +12837,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12801,7 +12851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -12821,7 +12871,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12841,7 +12891,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12855,7 +12905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12875,7 +12925,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -12895,7 +12945,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12915,7 +12965,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -12935,7 +12985,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -12949,7 +12999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12963,7 +13013,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -12977,7 +13027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12997,7 +13047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -13011,7 +13061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -13031,7 +13081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13045,7 +13095,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6765" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F198E31-B18D-4478-AD71-52D6024D9F22}"/>
+  <xr:revisionPtr revIDLastSave="6774" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48AB0720-F3B8-4862-968E-056082595A8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="590">
   <si>
     <t>ROUND</t>
   </si>
@@ -2537,7 +2537,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,7 +3066,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.6666666666666665</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,15 +6295,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" activeCellId="10" sqref="E2 E5 E7 E9 E11 E13 E15 E17 E19 E21 E25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -6591,6 +6591,26 @@
       </c>
       <c r="F25" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6896,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6885,11 +6905,11 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-2.6666666666666665</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6898,7 +6918,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6910,11 +6930,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.32950191570881227</v>
+        <v>0.32567049808429116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,7 +6943,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.333333333333334</v>
+        <v>15.416666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6935,11 +6955,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.583333333333334</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.32950191570881221</v>
+        <v>0.32567049808429122</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6774" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48AB0720-F3B8-4862-968E-056082595A8D}"/>
+  <xr:revisionPtr revIDLastSave="6809" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE517FE-CB1F-46C4-AB43-5A23F13CFA68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="597">
   <si>
     <t>ROUND</t>
   </si>
@@ -1817,6 +1817,27 @@
   </si>
   <si>
     <t>Rebecca Šramková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>ITF LLEIDA ($125,000)</t>
+  </si>
+  <si>
+    <t>Irene Burillo Escorihuela (SPAIN)</t>
+  </si>
+  <si>
+    <t>Ashlyn Krueger (USA)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 7-5</t>
+  </si>
+  <si>
+    <t>6-1 6-0</t>
+  </si>
+  <si>
+    <t>Harriet Dart (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(3) 6-0</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2438,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +2558,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,7 +3087,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3</c:v>
+                  <c:v>-1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4860,17 +4881,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4910,7 +4931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4930,7 +4951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4944,7 +4965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4964,7 +4985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +4999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -4992,7 +5013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5006,7 +5027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5038,17 +5059,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5068,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5088,7 +5109,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5102,7 +5123,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5116,7 +5137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5136,7 +5157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5156,7 +5177,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5176,7 +5197,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5196,7 +5217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5216,7 +5237,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5236,7 +5257,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5256,7 +5277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5276,7 +5297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5304,7 +5325,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5324,7 +5345,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5344,7 +5365,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5364,7 +5385,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5384,7 +5405,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5412,7 +5433,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5426,7 +5447,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5446,7 +5467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5460,7 +5481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5474,7 +5495,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5494,7 +5515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5508,7 +5529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5545,17 +5566,17 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5595,7 +5616,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5610,7 +5631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5630,7 +5651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5645,7 +5666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5660,7 +5681,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5675,7 +5696,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5695,7 +5716,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5715,7 +5736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5735,7 +5756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5769,7 +5790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5803,7 +5824,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5823,7 +5844,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5837,7 +5858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +5872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5871,7 +5892,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5885,7 +5906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5905,7 +5926,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5925,7 +5946,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5939,7 +5960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5959,7 +5980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -5979,7 +6000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -5993,7 +6014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6007,7 +6028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6021,7 +6042,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6035,7 +6056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6049,7 +6070,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6069,7 +6090,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6083,7 +6104,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6103,7 +6124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +6152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6145,7 +6166,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6179,7 +6200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6193,7 +6214,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6207,7 +6228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6221,7 +6242,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6235,7 +6256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6255,7 +6276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6272,7 +6293,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6295,23 +6316,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6351,7 +6372,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6371,7 +6392,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6385,7 +6406,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6405,7 +6426,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6425,7 +6446,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6445,7 +6466,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -6465,7 +6486,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6485,7 +6506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6505,7 +6526,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>555</v>
       </c>
@@ -6525,7 +6546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>562</v>
       </c>
@@ -6545,75 +6566,158 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>590</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>591</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>592</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>511</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>227</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>589</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>334</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>412</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>577</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>595</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6626,21 +6730,21 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6660,7 +6764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6681,7 +6785,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6702,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6723,7 +6827,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6744,7 +6848,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6765,7 +6869,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6786,7 +6890,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6807,7 +6911,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6828,7 +6932,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6849,7 +6953,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6870,7 +6974,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6891,34 +6995,34 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6926,24 +7030,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.32567049808429116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.32575757575757575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.416666666666666</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6951,15 +7055,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>21.75</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.666666666666666</v>
+        <v>14.833333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.32567049808429122</v>
+        <v>0.32575757575757575</v>
       </c>
     </row>
   </sheetData>
@@ -6988,17 +7092,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7018,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7038,7 +7142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7052,7 +7156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -7072,7 +7176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7092,7 +7196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -7106,7 +7210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7126,7 +7230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7140,7 +7244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7154,7 +7258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7168,7 +7272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7206,17 +7310,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7236,7 +7340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7256,7 +7360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7276,7 +7380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7290,7 +7394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7310,7 +7414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7330,7 +7434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7344,7 +7448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7358,7 +7462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7372,7 +7476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7386,7 +7490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7400,7 +7504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7414,7 +7518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7428,7 +7532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7448,7 +7552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7462,7 +7566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7482,7 +7586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7496,7 +7600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7510,7 +7614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7530,7 +7634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7550,7 +7654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7564,7 +7668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7584,7 +7688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7598,7 +7702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7612,7 +7716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7626,7 +7730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7640,7 +7744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7654,7 +7758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7710,17 +7814,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7740,7 +7844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7760,7 +7864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7774,7 +7878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7794,7 +7898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7808,7 +7912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7822,7 +7926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7836,7 +7940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7864,7 +7968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7878,7 +7982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7912,7 +8016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7932,7 +8036,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -7946,7 +8050,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -7960,7 +8064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -7974,7 +8078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7994,7 +8098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8008,7 +8112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -8028,7 +8132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -8048,7 +8152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -8062,7 +8166,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -8076,7 +8180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -8096,7 +8200,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8116,7 +8220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -8130,7 +8234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8150,7 +8254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8164,7 +8268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8184,7 +8288,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8198,7 +8302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8212,7 +8316,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8232,7 +8336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8246,7 +8350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8260,7 +8364,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8274,7 +8378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8288,7 +8392,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8308,7 +8412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8328,7 +8432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8348,7 +8452,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8368,7 +8472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8388,7 +8492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8402,7 +8506,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8416,7 +8520,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8430,7 +8534,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8444,7 +8548,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8464,7 +8568,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8478,7 +8582,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8516,17 +8620,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8546,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8566,7 +8670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8580,7 +8684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8600,7 +8704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8614,7 +8718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8628,7 +8732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8642,7 +8746,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8656,7 +8760,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8676,7 +8780,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8690,7 +8794,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8704,7 +8808,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8718,7 +8822,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8738,7 +8842,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8758,7 +8862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8772,7 +8876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8792,7 +8896,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8806,7 +8910,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8820,7 +8924,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8834,7 +8938,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -8854,7 +8958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -8874,7 +8978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8888,7 +8992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -8902,7 +9006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -8922,7 +9026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8936,7 +9040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -8956,7 +9060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8970,7 +9074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -8984,7 +9088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -8998,7 +9102,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -9018,7 +9122,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -9038,7 +9142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -9052,7 +9156,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -9072,7 +9176,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9190,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -9106,7 +9210,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -9120,7 +9224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9140,7 +9244,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9154,7 +9258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9174,7 +9278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9194,7 +9298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9208,7 +9312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9222,7 +9326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9236,7 +9340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9250,7 +9354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9270,7 +9374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9284,7 +9388,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9298,7 +9402,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9312,7 +9416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9332,7 +9436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9346,7 +9450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9360,7 +9464,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9374,7 +9478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9388,7 +9492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9408,7 +9512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9422,7 +9526,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9442,7 +9546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9462,7 +9566,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9476,7 +9580,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9490,7 +9594,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9510,7 +9614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9524,7 +9628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9544,7 +9648,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9564,7 +9668,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9584,7 +9688,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9604,7 +9708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9618,7 +9722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9632,7 +9736,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9646,7 +9750,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9666,7 +9770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9680,7 +9784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9694,7 +9798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9708,7 +9812,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9728,7 +9832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9742,7 +9846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9756,7 +9860,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9788,17 +9892,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9818,7 +9922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9838,7 +9942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9852,7 +9956,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9866,7 +9970,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9886,7 +9990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -9906,7 +10010,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -9926,7 +10030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9940,7 +10044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -9960,7 +10064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9974,7 +10078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -9994,7 +10098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10008,7 +10112,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -10022,7 +10126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -10036,7 +10140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -10056,7 +10160,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -10070,7 +10174,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -10084,7 +10188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10098,7 +10202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -10112,7 +10216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -10132,7 +10236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10152,7 +10256,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10166,7 +10270,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10180,7 +10284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10200,7 +10304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10220,7 +10324,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10240,7 +10344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10260,7 +10364,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10280,7 +10384,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10294,7 +10398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10308,7 +10412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10322,7 +10426,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10336,7 +10440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10350,7 +10454,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10370,7 +10474,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10384,7 +10488,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10404,7 +10508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10418,7 +10522,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10432,7 +10536,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10446,7 +10550,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10460,7 +10564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10480,7 +10584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10494,7 +10598,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10514,7 +10618,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10528,7 +10632,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10548,7 +10652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10562,7 +10666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10582,7 +10686,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10596,7 +10700,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10616,7 +10720,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10630,7 +10734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10644,7 +10748,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10664,7 +10768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10678,7 +10782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10692,7 +10796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10706,7 +10810,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10726,7 +10830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10740,7 +10844,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10754,7 +10858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +10872,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10782,7 +10886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10802,7 +10906,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10822,7 +10926,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10839,7 +10943,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -10937,17 +11041,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10967,7 +11071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -10987,7 +11091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11001,7 +11105,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -11015,7 +11119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -11029,7 +11133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -11043,7 +11147,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11063,7 +11167,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11077,7 +11181,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -11094,7 +11198,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -11114,7 +11218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11128,7 +11232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11142,7 +11246,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11162,7 +11266,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11176,7 +11280,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11190,7 +11294,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11204,7 +11308,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11218,7 +11322,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11238,7 +11342,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11252,7 +11356,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11272,7 +11376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11292,7 +11396,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11306,7 +11410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11323,7 +11427,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11343,7 +11447,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11363,7 +11467,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11377,7 +11481,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11391,7 +11495,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11411,7 +11515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11431,7 +11535,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11445,7 +11549,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11459,7 +11563,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11473,7 +11577,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11493,7 +11597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11507,7 +11611,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11521,7 +11625,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11535,7 +11639,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11549,7 +11653,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11569,7 +11673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11589,7 +11693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11603,7 +11707,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11623,7 +11727,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11637,7 +11741,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11657,7 +11761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11671,7 +11775,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11685,7 +11789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11699,7 +11803,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11713,7 +11817,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11733,7 +11837,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11747,7 +11851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11761,7 +11865,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11775,7 +11879,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11789,7 +11893,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11809,7 +11913,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11823,7 +11927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11837,7 +11941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11857,7 +11961,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11871,7 +11975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11885,7 +11989,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -11905,7 +12009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -11919,7 +12023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -11933,7 +12037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -11947,7 +12051,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -11961,7 +12065,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -11981,7 +12085,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -11995,7 +12099,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -12009,7 +12113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -12029,7 +12133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -12043,7 +12147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -12057,7 +12161,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -12077,7 +12181,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -12091,7 +12195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -12128,17 +12232,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12158,7 +12262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12178,7 +12282,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12192,7 +12296,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12212,7 +12316,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12226,7 +12330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12246,7 +12350,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12260,7 +12364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12274,7 +12378,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12288,7 +12392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12302,7 +12406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12316,7 +12420,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12330,7 +12434,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12347,7 +12451,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12358,7 +12462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12378,7 +12482,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12398,7 +12502,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12418,7 +12522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12432,7 +12536,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12446,7 +12550,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12460,7 +12564,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12474,7 +12578,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12494,7 +12598,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12514,7 +12618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12528,7 +12632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12542,7 +12646,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12556,7 +12660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12576,7 +12680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12596,7 +12700,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12610,7 +12714,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12624,7 +12728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12638,7 +12742,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12652,7 +12756,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12666,7 +12770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12697,17 +12801,17 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12727,7 +12831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -12747,7 +12851,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12761,7 +12865,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12775,7 +12879,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12789,7 +12893,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -12809,7 +12913,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12823,7 +12927,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12837,7 +12941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12857,7 +12961,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12871,7 +12975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -12891,7 +12995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -12911,7 +13015,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -12925,7 +13029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -12945,7 +13049,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -12965,7 +13069,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -12985,7 +13089,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -13005,7 +13109,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -13019,7 +13123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13033,7 +13137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -13047,7 +13151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -13067,7 +13171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -13081,7 +13185,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -13101,7 +13205,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13115,7 +13219,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6809" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE517FE-CB1F-46C4-AB43-5A23F13CFA68}"/>
+  <xr:revisionPtr revIDLastSave="6817" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90E7793-7CBF-4F5B-A3A2-76C02F3BE352}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="597">
   <si>
     <t>ROUND</t>
   </si>
@@ -2558,7 +2558,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,7 +3087,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.3333333333333333</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,6 +4575,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6316,10 +6320,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6688,7 +6692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6714,6 +6718,26 @@
       </c>
       <c r="F34" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6754,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7000,7 +7024,7 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7009,11 +7033,11 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-1.3333333333333333</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7022,7 +7046,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7034,11 +7058,11 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.32575757575757575</v>
+        <v>0.32196969696969696</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7047,7 +7071,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.583333333333334</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7059,11 +7083,11 @@
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.833333333333334</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.32575757575757575</v>
+        <v>0.32196969696969702</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6817" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90E7793-7CBF-4F5B-A3A2-76C02F3BE352}"/>
+  <xr:revisionPtr revIDLastSave="6880" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB200E6-DD7C-4F35-AE09-5B7CD24E49C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="612">
   <si>
     <t>ROUND</t>
   </si>
@@ -1838,6 +1838,51 @@
   </si>
   <si>
     <t>6-3 6-7(3) 6-0</t>
+  </si>
+  <si>
+    <t>WASHINGTON OPEN</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(6)</t>
+  </si>
+  <si>
+    <t>Wafan Yang (CHINA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-4</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-4</t>
+  </si>
+  <si>
+    <t>JAPAN WOMEN'S OPEN</t>
+  </si>
+  <si>
+    <t>Aoi Ito (JAPAN)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1971,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1937,6 +1982,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2438,7 +2484,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,7 +2604,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,7 +3133,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.4444444444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,20 +4928,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4915,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4935,7 +4981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4955,7 +5001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -4969,7 +5015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4989,7 +5035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5003,7 +5049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -5017,7 +5063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5031,7 +5077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5060,20 +5106,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5093,7 +5139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5113,7 +5159,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5173,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5141,7 +5187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5161,7 +5207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5181,7 +5227,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5201,7 +5247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5221,7 +5267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5241,7 +5287,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5261,7 +5307,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5281,7 +5327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5315,7 +5361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5329,7 +5375,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5349,7 +5395,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5369,7 +5415,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5389,7 +5435,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5409,7 +5455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5423,7 +5469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5437,7 +5483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5451,7 +5497,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5471,7 +5517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5485,7 +5531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5499,7 +5545,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5519,7 +5565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5533,7 +5579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5567,20 +5613,20 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5600,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5620,7 +5666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5635,7 +5681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5655,7 +5701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5670,7 +5716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5685,7 +5731,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5700,7 +5746,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5720,7 +5766,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5740,7 +5786,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5760,7 +5806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5774,7 +5820,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5794,7 +5840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5814,7 +5860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5828,7 +5874,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5848,7 +5894,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5862,7 +5908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5876,7 +5922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5896,7 +5942,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5910,7 +5956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5930,7 +5976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5950,7 +5996,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5964,7 +6010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -5984,7 +6030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6004,7 +6050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6018,7 +6064,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6032,7 +6078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6046,7 +6092,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6060,7 +6106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6074,7 +6120,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6094,7 +6140,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6108,7 +6154,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6128,7 +6174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6142,7 +6188,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6156,7 +6202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6170,7 +6216,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6184,7 +6230,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6204,7 +6250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6218,7 +6264,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6232,7 +6278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6246,7 +6292,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6260,7 +6306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6280,7 +6326,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6297,7 +6343,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6320,23 +6366,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6376,7 +6422,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6396,7 +6442,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6410,7 +6456,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6430,7 +6476,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6450,7 +6496,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6470,7 +6516,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -6490,7 +6536,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6510,7 +6556,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6530,7 +6576,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>555</v>
       </c>
@@ -6550,7 +6596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>562</v>
       </c>
@@ -6570,7 +6616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>590</v>
       </c>
@@ -6590,7 +6636,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6604,7 +6650,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -6624,7 +6670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -6638,7 +6684,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +6698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -6672,7 +6718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>424</v>
       </c>
@@ -6692,7 +6738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6706,7 +6752,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6766,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6738,6 +6784,188 @@
       </c>
       <c r="F36" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>597</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>598</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>517</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>600</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>521</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>603</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>604</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>357</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" t="s">
+        <v>606</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s">
+        <v>607</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>609</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -6758,17 +6986,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6788,7 +7016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6809,7 +7037,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6830,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6851,7 +7079,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6872,7 +7100,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -6893,7 +7121,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -6914,7 +7142,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6935,7 +7163,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6956,7 +7184,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6977,7 +7205,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -6998,7 +7226,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7019,34 +7247,34 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7054,24 +7282,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.32196969696969696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.30337078651685395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.666666666666666</v>
+        <v>16.25</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7079,15 +7307,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>22</v>
+        <v>22.25</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.916666666666666</v>
+        <v>15.5</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.32196969696969702</v>
+        <v>0.30337078651685395</v>
       </c>
     </row>
   </sheetData>
@@ -7113,20 +7341,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7146,7 +7374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7166,7 +7394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7180,7 +7408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -7200,7 +7428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7220,7 +7448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -7234,7 +7462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7254,7 +7482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7268,7 +7496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7282,7 +7510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7296,7 +7524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7331,20 +7559,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7364,7 +7592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7384,7 +7612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7404,7 +7632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7418,7 +7646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7438,7 +7666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7458,7 +7686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7472,7 +7700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7500,7 +7728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7514,7 +7742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7528,7 +7756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7542,7 +7770,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7556,7 +7784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7576,7 +7804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7590,7 +7818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7610,7 +7838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7624,7 +7852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7638,7 +7866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7658,7 +7886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7678,7 +7906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7692,7 +7920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7712,7 +7940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7726,7 +7954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7740,7 +7968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7754,7 +7982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7768,7 +7996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -7782,7 +8010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7835,20 +8063,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7868,7 +8096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7888,7 +8116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7902,7 +8130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -7922,7 +8150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -7936,7 +8164,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -7950,7 +8178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -7964,7 +8192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7978,7 +8206,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7992,7 +8220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8006,7 +8234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -8020,7 +8248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8040,7 +8268,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -8060,7 +8288,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -8074,7 +8302,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -8088,7 +8316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -8102,7 +8330,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8122,7 +8350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8136,7 +8364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -8156,7 +8384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -8176,7 +8404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -8190,7 +8418,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -8204,7 +8432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -8224,7 +8452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8244,7 +8472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -8258,7 +8486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8278,7 +8506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8292,7 +8520,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8312,7 +8540,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8326,7 +8554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8340,7 +8568,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8360,7 +8588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8374,7 +8602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8388,7 +8616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8402,7 +8630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8416,7 +8644,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8436,7 +8664,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8456,7 +8684,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8476,7 +8704,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8496,7 +8724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8516,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8530,7 +8758,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8544,7 +8772,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8558,7 +8786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8572,7 +8800,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8592,7 +8820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8606,7 +8834,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8641,20 +8869,20 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8674,7 +8902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8694,7 +8922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8708,7 +8936,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8728,7 +8956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8742,7 +8970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8756,7 +8984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8770,7 +8998,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8784,7 +9012,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -8804,7 +9032,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -8818,7 +9046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8832,7 +9060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8846,7 +9074,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -8866,7 +9094,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8886,7 +9114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +9128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8920,7 +9148,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8934,7 +9162,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -8948,7 +9176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8962,7 +9190,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -8982,7 +9210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -9002,7 +9230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9016,7 +9244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -9030,7 +9258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -9050,7 +9278,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -9064,7 +9292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -9084,7 +9312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -9098,7 +9326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -9112,7 +9340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -9126,7 +9354,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -9146,7 +9374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -9166,7 +9394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -9180,7 +9408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -9200,7 +9428,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9214,7 +9442,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -9234,7 +9462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -9248,7 +9476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9268,7 +9496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9282,7 +9510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9302,7 +9530,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9322,7 +9550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9336,7 +9564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9350,7 +9578,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9364,7 +9592,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9378,7 +9606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9398,7 +9626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9412,7 +9640,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9426,7 +9654,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9440,7 +9668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9460,7 +9688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9474,7 +9702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9488,7 +9716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9502,7 +9730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9516,7 +9744,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9536,7 +9764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9550,7 +9778,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9570,7 +9798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9590,7 +9818,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9604,7 +9832,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9618,7 +9846,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9638,7 +9866,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9652,7 +9880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9672,7 +9900,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9692,7 +9920,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9712,7 +9940,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9732,7 +9960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9746,7 +9974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9760,7 +9988,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -9774,7 +10002,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -9794,7 +10022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -9808,7 +10036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -9822,7 +10050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -9836,7 +10064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -9856,7 +10084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -9870,7 +10098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -9884,7 +10112,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -9913,20 +10141,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9946,7 +10174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9966,7 +10194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9980,7 +10208,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9994,7 +10222,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -10014,7 +10242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -10034,7 +10262,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -10054,7 +10282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -10068,7 +10296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -10088,7 +10316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -10102,7 +10330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -10122,7 +10350,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10136,7 +10364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -10150,7 +10378,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -10164,7 +10392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -10184,7 +10412,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -10198,7 +10426,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -10212,7 +10440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10226,7 +10454,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -10240,7 +10468,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -10260,7 +10488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10280,7 +10508,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10294,7 +10522,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10308,7 +10536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10328,7 +10556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10348,7 +10576,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10368,7 +10596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10388,7 +10616,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10408,7 +10636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10422,7 +10650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10436,7 +10664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10450,7 +10678,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10464,7 +10692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10478,7 +10706,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10498,7 +10726,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10512,7 +10740,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10532,7 +10760,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10546,7 +10774,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10560,7 +10788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10574,7 +10802,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10588,7 +10816,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10608,7 +10836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10622,7 +10850,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10642,7 +10870,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10656,7 +10884,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10676,7 +10904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10690,7 +10918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10710,7 +10938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10724,7 +10952,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10744,7 +10972,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10758,7 +10986,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +11000,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -10792,7 +11020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -10806,7 +11034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10820,7 +11048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -10834,7 +11062,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10854,7 +11082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -10868,7 +11096,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -10882,7 +11110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -10896,7 +11124,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -10910,7 +11138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -10930,7 +11158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -10950,7 +11178,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -10967,7 +11195,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -11062,20 +11290,20 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11095,7 +11323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -11115,7 +11343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11129,7 +11357,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -11143,7 +11371,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -11157,7 +11385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -11171,7 +11399,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11191,7 +11419,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11205,7 +11433,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -11222,7 +11450,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -11242,7 +11470,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11256,7 +11484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11270,7 +11498,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11290,7 +11518,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11304,7 +11532,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11318,7 +11546,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11332,7 +11560,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11346,7 +11574,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11366,7 +11594,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11380,7 +11608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11400,7 +11628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11420,7 +11648,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11434,7 +11662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11451,7 +11679,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11471,7 +11699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11491,7 +11719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11505,7 +11733,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11519,7 +11747,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11539,7 +11767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11559,7 +11787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11573,7 +11801,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11587,7 +11815,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11601,7 +11829,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11621,7 +11849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11635,7 +11863,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11649,7 +11877,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11663,7 +11891,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11677,7 +11905,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11697,7 +11925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11717,7 +11945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11731,7 +11959,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11751,7 +11979,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11765,7 +11993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -11785,7 +12013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -11799,7 +12027,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -11813,7 +12041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -11827,7 +12055,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -11841,7 +12069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -11861,7 +12089,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -11875,7 +12103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -11889,7 +12117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -11903,7 +12131,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -11917,7 +12145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -11937,7 +12165,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -11951,7 +12179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -11965,7 +12193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -11985,7 +12213,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -11999,7 +12227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -12013,7 +12241,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -12033,7 +12261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -12047,7 +12275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -12061,7 +12289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12075,7 +12303,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -12089,7 +12317,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -12109,7 +12337,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -12123,7 +12351,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -12137,7 +12365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -12157,7 +12385,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -12171,7 +12399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -12185,7 +12413,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -12205,7 +12433,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -12219,7 +12447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -12253,20 +12481,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12286,7 +12514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12306,7 +12534,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12320,7 +12548,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12340,7 +12568,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12354,7 +12582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12374,7 +12602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12388,7 +12616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12402,7 +12630,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12416,7 +12644,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12430,7 +12658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12444,7 +12672,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12458,7 +12686,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12475,7 +12703,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12486,7 +12714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12506,7 +12734,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12526,7 +12754,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12546,7 +12774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12560,7 +12788,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12574,7 +12802,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12588,7 +12816,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12602,7 +12830,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12622,7 +12850,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12642,7 +12870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12656,7 +12884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12670,7 +12898,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12684,7 +12912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12704,7 +12932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12724,7 +12952,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12738,7 +12966,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12752,7 +12980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12766,7 +12994,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -12780,7 +13008,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12794,7 +13022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -12822,20 +13050,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12855,7 +13083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -12875,7 +13103,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -12889,7 +13117,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -12903,7 +13131,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -12917,7 +13145,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -12937,7 +13165,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -12951,7 +13179,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -12965,7 +13193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -12985,7 +13213,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -12999,7 +13227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -13019,7 +13247,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -13039,7 +13267,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -13053,7 +13281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -13073,7 +13301,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -13093,7 +13321,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -13113,7 +13341,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -13133,7 +13361,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -13147,7 +13375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13161,7 +13389,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -13175,7 +13403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -13195,7 +13423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -13209,7 +13437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -13229,7 +13457,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13243,7 +13471,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6880" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB200E6-DD7C-4F35-AE09-5B7CD24E49C4}"/>
+  <xr:revisionPtr revIDLastSave="6907" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B2CDA5-C289-4E5F-93F7-FE9FC6254170}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="617">
   <si>
     <t>ROUND</t>
   </si>
@@ -1883,6 +1883,21 @@
   </si>
   <si>
     <t>6-2 3-6 7-5</t>
+  </si>
+  <si>
+    <t>PAN PACIFIC OPEN</t>
+  </si>
+  <si>
+    <t>6-7(8) 6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1986,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1982,7 +1997,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2484,7 +2498,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,7 +2618,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3147,7 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.4444444444444444</c:v>
+                  <c:v>-0.76923076923076927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,17 +4945,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4981,7 +4995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -5001,7 +5015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -5035,7 +5049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -5063,7 +5077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5077,7 +5091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5109,17 +5123,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5173,7 +5187,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +5201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5207,7 +5221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5227,7 +5241,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -5247,7 +5261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5267,7 +5281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5287,7 +5301,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5307,7 +5321,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5347,7 +5361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5361,7 +5375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5375,7 +5389,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5395,7 +5409,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5415,7 +5429,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5435,7 +5449,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5455,7 +5469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5469,7 +5483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5531,7 +5545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5545,7 +5559,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5565,7 +5579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5579,7 +5593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5616,17 +5630,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5666,7 +5680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5681,7 +5695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5701,7 +5715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5716,7 +5730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5731,7 +5745,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5746,7 +5760,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5786,7 +5800,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5806,7 +5820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -5840,7 +5854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5860,7 +5874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5874,7 +5888,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5894,7 +5908,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5908,7 +5922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5942,7 +5956,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5956,7 +5970,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6010,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -6030,7 +6044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6050,7 +6064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6064,7 +6078,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6078,7 +6092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6092,7 +6106,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6106,7 +6120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6120,7 +6134,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6140,7 +6154,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6154,7 +6168,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6174,7 +6188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +6202,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6202,7 +6216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6216,7 +6230,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6230,7 +6244,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6250,7 +6264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6264,7 +6278,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6292,7 +6306,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6306,7 +6320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6343,7 +6357,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6366,23 +6380,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" activeCellId="7" sqref="E4 E23 E26:E27 E32:E33 E42 E45 E48 E55:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6422,7 +6436,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6442,7 +6456,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6456,7 +6470,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6476,7 +6490,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6496,7 +6510,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6516,7 +6530,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -6536,7 +6550,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6556,7 +6570,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6576,7 +6590,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>555</v>
       </c>
@@ -6596,7 +6610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>562</v>
       </c>
@@ -6616,7 +6630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>590</v>
       </c>
@@ -6636,7 +6650,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6650,7 +6664,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -6670,7 +6684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -6684,7 +6698,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6698,7 +6712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -6718,7 +6732,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>424</v>
       </c>
@@ -6738,7 +6752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6752,7 +6766,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6766,7 +6780,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6786,7 +6800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>597</v>
       </c>
@@ -6806,7 +6820,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>517</v>
       </c>
@@ -6826,7 +6840,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>521</v>
       </c>
@@ -6846,7 +6860,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -6880,7 +6894,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>227</v>
       </c>
@@ -6894,7 +6908,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -6914,7 +6928,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -6928,7 +6942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -6948,7 +6962,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>609</v>
       </c>
@@ -6958,14 +6972,90 @@
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" t="s">
         <v>610</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>612</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>508</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>616</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>398</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>615</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -6986,17 +7076,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7016,7 +7106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7037,7 +7127,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7058,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7079,7 +7169,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7100,7 +7190,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7121,7 +7211,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7142,7 +7232,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7163,7 +7253,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7184,7 +7274,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7205,7 +7295,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7226,7 +7316,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7247,34 +7337,34 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4444444444444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7282,24 +7372,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.30337078651685395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30996309963099633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>16.25</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7307,15 +7397,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>22.25</v>
+        <v>22.583333333333332</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>15.5</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.30337078651685395</v>
+        <v>0.30996309963099627</v>
       </c>
     </row>
   </sheetData>
@@ -7344,17 +7434,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7394,7 +7484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7408,7 +7498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -7428,7 +7518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7448,7 +7538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -7462,7 +7552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7482,7 +7572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7496,7 +7586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7510,7 +7600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7524,7 +7614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7562,17 +7652,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7592,7 +7682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7612,7 +7702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7632,7 +7722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7646,7 +7736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7666,7 +7756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7686,7 +7776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7700,7 +7790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7714,7 +7804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7742,7 +7832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7756,7 +7846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7770,7 +7860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7784,7 +7874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7804,7 +7894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7818,7 +7908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7838,7 +7928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7852,7 +7942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7866,7 +7956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7886,7 +7976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7906,7 +7996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7920,7 +8010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -7940,7 +8030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -7954,7 +8044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -7968,7 +8058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7982,7 +8072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -7996,7 +8086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -8010,7 +8100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -8066,17 +8156,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8096,7 +8186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8116,7 +8206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8130,7 +8220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -8150,7 +8240,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -8178,7 +8268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -8192,7 +8282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -8206,7 +8296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -8220,7 +8310,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -8248,7 +8338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8268,7 +8358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -8288,7 +8378,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -8302,7 +8392,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -8316,7 +8406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -8330,7 +8420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8350,7 +8440,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8364,7 +8454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -8384,7 +8474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -8404,7 +8494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -8418,7 +8508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -8432,7 +8522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -8452,7 +8542,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8472,7 +8562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -8486,7 +8576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8506,7 +8596,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8520,7 +8610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8540,7 +8630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8554,7 +8644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8568,7 +8658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8588,7 +8678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8602,7 +8692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8616,7 +8706,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8630,7 +8720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8644,7 +8734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8664,7 +8754,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8684,7 +8774,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8704,7 +8794,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8724,7 +8814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8744,7 +8834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8758,7 +8848,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8772,7 +8862,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8786,7 +8876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8800,7 +8890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8820,7 +8910,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8834,7 +8924,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8872,17 +8962,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8902,7 +8992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8922,7 +9012,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -8936,7 +9026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -8956,7 +9046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8970,7 +9060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8984,7 +9074,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8998,7 +9088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9102,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -9032,7 +9122,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9046,7 +9136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -9060,7 +9150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9074,7 +9164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -9094,7 +9184,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9114,7 +9204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9128,7 +9218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -9148,7 +9238,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9162,7 +9252,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -9176,7 +9266,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -9190,7 +9280,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -9210,7 +9300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -9230,7 +9320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9244,7 +9334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -9258,7 +9348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -9278,7 +9368,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -9292,7 +9382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -9312,7 +9402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -9326,7 +9416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -9340,7 +9430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -9354,7 +9444,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -9374,7 +9464,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -9394,7 +9484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -9408,7 +9498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -9428,7 +9518,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9442,7 +9532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -9462,7 +9552,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -9476,7 +9566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9496,7 +9586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9510,7 +9600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9530,7 +9620,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9550,7 +9640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9564,7 +9654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9578,7 +9668,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9592,7 +9682,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9606,7 +9696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9626,7 +9716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9640,7 +9730,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9654,7 +9744,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9668,7 +9758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9688,7 +9778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9702,7 +9792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9716,7 +9806,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9730,7 +9820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9744,7 +9834,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9764,7 +9854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9778,7 +9868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9798,7 +9888,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9818,7 +9908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9832,7 +9922,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9846,7 +9936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9866,7 +9956,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9880,7 +9970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9900,7 +9990,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -9920,7 +10010,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -9940,7 +10030,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -9960,7 +10050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -9974,7 +10064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -9988,7 +10078,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -10002,7 +10092,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -10022,7 +10112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -10036,7 +10126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -10050,7 +10140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -10064,7 +10154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -10084,7 +10174,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -10098,7 +10188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -10112,7 +10202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -10144,17 +10234,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10174,7 +10264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -10194,7 +10284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10208,7 +10298,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10222,7 +10312,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -10242,7 +10332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -10262,7 +10352,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -10282,7 +10372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -10296,7 +10386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -10316,7 +10406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -10350,7 +10440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10364,7 +10454,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -10378,7 +10468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -10392,7 +10482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -10412,7 +10502,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -10426,7 +10516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -10440,7 +10530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10454,7 +10544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -10468,7 +10558,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -10488,7 +10578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10508,7 +10598,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10522,7 +10612,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10536,7 +10626,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10556,7 +10646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10576,7 +10666,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10596,7 +10686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10616,7 +10706,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10636,7 +10726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10650,7 +10740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10664,7 +10754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10678,7 +10768,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10692,7 +10782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10706,7 +10796,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10726,7 +10816,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10740,7 +10830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10760,7 +10850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10774,7 +10864,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10788,7 +10878,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10802,7 +10892,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10816,7 +10906,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10836,7 +10926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10850,7 +10940,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10870,7 +10960,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10884,7 +10974,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10904,7 +10994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -10918,7 +11008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -10938,7 +11028,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -10952,7 +11042,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -10972,7 +11062,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -10986,7 +11076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -11000,7 +11090,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -11020,7 +11110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -11034,7 +11124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -11048,7 +11138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -11062,7 +11152,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -11082,7 +11172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -11096,7 +11186,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -11110,7 +11200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -11124,7 +11214,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -11138,7 +11228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -11158,7 +11248,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -11178,7 +11268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -11195,7 +11285,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -11293,17 +11383,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11323,7 +11413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -11343,7 +11433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11357,7 +11447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -11371,7 +11461,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -11385,7 +11475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -11399,7 +11489,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11419,7 +11509,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11433,7 +11523,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -11450,7 +11540,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -11470,7 +11560,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11484,7 +11574,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11498,7 +11588,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11518,7 +11608,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11532,7 +11622,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11546,7 +11636,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11560,7 +11650,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11574,7 +11664,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11594,7 +11684,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11608,7 +11698,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11628,7 +11718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11648,7 +11738,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11662,7 +11752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11679,7 +11769,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11699,7 +11789,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11719,7 +11809,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11733,7 +11823,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11747,7 +11837,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11767,7 +11857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11787,7 +11877,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11801,7 +11891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11815,7 +11905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11829,7 +11919,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11849,7 +11939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11863,7 +11953,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11877,7 +11967,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11891,7 +11981,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11905,7 +11995,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -11925,7 +12015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -11945,7 +12035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -11959,7 +12049,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -11979,7 +12069,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -11993,7 +12083,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -12013,7 +12103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -12027,7 +12117,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -12041,7 +12131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -12055,7 +12145,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12069,7 +12159,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -12089,7 +12179,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -12103,7 +12193,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -12117,7 +12207,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -12131,7 +12221,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -12145,7 +12235,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -12165,7 +12255,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -12179,7 +12269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12193,7 +12283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -12213,7 +12303,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -12227,7 +12317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -12241,7 +12331,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -12261,7 +12351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -12275,7 +12365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -12289,7 +12379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12303,7 +12393,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -12317,7 +12407,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -12337,7 +12427,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -12351,7 +12441,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -12365,7 +12455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -12385,7 +12475,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -12399,7 +12489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -12413,7 +12503,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -12433,7 +12523,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -12447,7 +12537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -12484,17 +12574,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12514,7 +12604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12534,7 +12624,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12548,7 +12638,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12568,7 +12658,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12582,7 +12672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12602,7 +12692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12616,7 +12706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12630,7 +12720,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12644,7 +12734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12658,7 +12748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12672,7 +12762,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12686,7 +12776,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12703,7 +12793,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12714,7 +12804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12734,7 +12824,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12754,7 +12844,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12774,7 +12864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12788,7 +12878,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12802,7 +12892,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12816,7 +12906,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12830,7 +12920,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12850,7 +12940,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12870,7 +12960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12884,7 +12974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12898,7 +12988,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -12912,7 +13002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -12932,7 +13022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -12952,7 +13042,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -12966,7 +13056,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -12980,7 +13070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -12994,7 +13084,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -13008,7 +13098,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -13022,7 +13112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -13053,17 +13143,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13083,7 +13173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -13103,7 +13193,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13117,7 +13207,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -13131,7 +13221,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -13145,7 +13235,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -13165,7 +13255,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -13179,7 +13269,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -13193,7 +13283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -13213,7 +13303,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -13227,7 +13317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -13247,7 +13337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -13267,7 +13357,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -13281,7 +13371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -13301,7 +13391,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -13321,7 +13411,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -13341,7 +13431,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -13361,7 +13451,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -13375,7 +13465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13389,7 +13479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -13403,7 +13493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -13423,7 +13513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -13437,7 +13527,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -13457,7 +13547,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13471,7 +13561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6907" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B2CDA5-C289-4E5F-93F7-FE9FC6254170}"/>
+  <xr:revisionPtr revIDLastSave="6953" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2513AD44-030A-41D9-900E-25B649ABD523}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2022" sheetId="31" r:id="rId10"/>
     <sheet name="2023" sheetId="34" r:id="rId11"/>
     <sheet name="2024" sheetId="39" r:id="rId12"/>
-    <sheet name="Stats" sheetId="1" r:id="rId13"/>
-    <sheet name="Wins-Losses" sheetId="40" r:id="rId14"/>
-    <sheet name="Winning Percentile Range" sheetId="41" r:id="rId15"/>
+    <sheet name="2025" sheetId="40" r:id="rId13"/>
+    <sheet name="Stats" sheetId="1" r:id="rId14"/>
+    <sheet name="Wins-Losses" sheetId="41" r:id="rId15"/>
+    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="620">
   <si>
     <t>ROUND</t>
   </si>
@@ -1898,6 +1899,15 @@
   </si>
   <si>
     <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>Wang Xiyu (CHINA)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(7) 7-6(3)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -2343,13 +2353,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya</a:t>
+              <a:t>Sonya Kenin (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Kenin (USA): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2415,10 +2420,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$13</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2455,15 +2460,18 @@
                 <c:pt idx="11">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$13</c:f>
+              <c:f>Stats!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2500,12 +2508,15 @@
                 <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5048-434F-8969-D1BB479EB796}"/>
+              <c16:uniqueId val="{00000000-18A7-49D8-AD54-C94061626C8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2535,10 +2546,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$13</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2575,15 +2586,18 @@
                 <c:pt idx="11">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$13</c:f>
+              <c:f>Stats!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2620,12 +2634,15 @@
                 <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5048-434F-8969-D1BB479EB796}"/>
+              <c16:uniqueId val="{00000001-18A7-49D8-AD54-C94061626C8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2639,11 +2656,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1648884112"/>
-        <c:axId val="1532973376"/>
+        <c:axId val="1381136736"/>
+        <c:axId val="1381137216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1648884112"/>
+        <c:axId val="1381136736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1532973376"/>
+        <c:crossAx val="1381137216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1532973376"/>
+        <c:axId val="1381137216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648884112"/>
+        <c:crossAx val="1381136736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2965,11 +2982,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sonya</a:t>
+              <a:t>Sonya Kenin (USA): Winning Percentile</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Kenin (USA): Winning Percentile Range</a:t>
+              <a:t> Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3064,10 +3081,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$13</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -3104,15 +3121,18 @@
                 <c:pt idx="11">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$13</c:f>
+              <c:f>Stats!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -3149,13 +3169,16 @@
                 <c:pt idx="11">
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A831-4700-B513-7F63291F3F64}"/>
+              <c16:uniqueId val="{00000000-B860-494E-AE1D-760921E8E17C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3169,11 +3192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1541097008"/>
-        <c:axId val="15640128"/>
+        <c:axId val="137348976"/>
+        <c:axId val="137347536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1541097008"/>
+        <c:axId val="137348976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15640128"/>
+        <c:crossAx val="137347536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3279,7 +3302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15640128"/>
+        <c:axId val="137347536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541097008"/>
+        <c:crossAx val="137348976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4547,24 +4570,25 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6512B2BB-19E1-493C-9F4A-59A902DBCC04}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F247D65-643F-42A4-99D6-5F5D9139942B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{716596F6-03E2-4379-90A2-C069B5B6CF72}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49B4B95B-68F5-4519-9345-6CAC47C64453}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -4573,13 +4597,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8577792" cy="5836708"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D956ED06-1D93-3F58-F8FC-A1FC6393B373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B18EF5-500E-5068-3AD1-04BA2A85AA49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4606,13 +4630,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4497BE9F-69C6-2A52-95D9-639E9A542F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B693BEB6-7AF7-F39A-FE8D-6368134D77BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4942,20 +4966,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4975,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4995,7 +5019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -5015,7 +5039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5029,7 +5053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -5049,7 +5073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5063,7 +5087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -5077,7 +5101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5091,7 +5115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -5119,21 +5143,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5153,7 +5177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -5173,7 +5197,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5187,7 +5211,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5201,7 +5225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -5221,7 +5245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5241,9 +5265,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -5261,7 +5285,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -5281,7 +5305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -5301,7 +5325,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5321,7 +5345,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>520</v>
       </c>
@@ -5341,7 +5365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -5361,7 +5385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5375,7 +5399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -5389,7 +5413,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5409,7 +5433,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -5429,7 +5453,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -5449,7 +5473,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5469,7 +5493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -5483,7 +5507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -5497,7 +5521,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5535,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>538</v>
       </c>
@@ -5531,7 +5555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5545,7 +5569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -5559,7 +5583,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5579,7 +5603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -5593,7 +5617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -5627,20 +5651,20 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5660,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>546</v>
       </c>
@@ -5680,7 +5704,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>14</v>
@@ -5695,7 +5719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>384</v>
       </c>
@@ -5715,7 +5739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -5730,7 +5754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
         <v>18</v>
@@ -5745,7 +5769,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -5760,7 +5784,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>306</v>
       </c>
@@ -5780,7 +5804,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -5800,7 +5824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -5820,7 +5844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5834,9 +5858,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -5854,7 +5878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5874,7 +5898,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>227</v>
       </c>
@@ -5888,7 +5912,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -5908,7 +5932,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>227</v>
       </c>
@@ -5922,7 +5946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5936,7 +5960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -5956,7 +5980,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5970,7 +5994,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -5990,7 +6014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -6010,7 +6034,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6024,7 +6048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -6044,7 +6068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6064,7 +6088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -6078,7 +6102,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>37</v>
       </c>
@@ -6092,7 +6116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -6106,7 +6130,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>227</v>
       </c>
@@ -6120,7 +6144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -6134,7 +6158,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6178,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>227</v>
       </c>
@@ -6168,7 +6192,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -6188,7 +6212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -6202,7 +6226,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -6216,7 +6240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6230,7 +6254,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -6244,7 +6268,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>563</v>
       </c>
@@ -6264,7 +6288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -6278,7 +6302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -6292,7 +6316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -6306,7 +6330,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -6320,7 +6344,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -6340,7 +6364,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>573</v>
       </c>
@@ -6357,7 +6381,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>575</v>
       </c>
@@ -6382,21 +6406,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E55" activeCellId="7" sqref="E4 E23 E26:E27 E32:E33 E42 E45 E48 E55:E58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6416,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>455</v>
       </c>
@@ -6436,7 +6460,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -6456,7 +6480,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6470,7 +6494,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6490,7 +6514,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6510,7 +6534,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -6530,9 +6554,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>619</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -6550,7 +6574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6570,7 +6594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6590,7 +6614,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>555</v>
       </c>
@@ -6610,7 +6634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>562</v>
       </c>
@@ -6630,7 +6654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>590</v>
       </c>
@@ -6650,7 +6674,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6664,7 +6688,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -6684,7 +6708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -6698,7 +6722,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6712,7 +6736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -6732,7 +6756,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>424</v>
       </c>
@@ -6752,7 +6776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6766,7 +6790,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6780,7 +6804,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -6800,7 +6824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>597</v>
       </c>
@@ -6820,7 +6844,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>517</v>
       </c>
@@ -6840,7 +6864,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>521</v>
       </c>
@@ -6860,7 +6884,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -6874,7 +6898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -6894,7 +6918,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>227</v>
       </c>
@@ -6908,7 +6932,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -6928,7 +6952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -6942,7 +6966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -6962,7 +6986,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>609</v>
       </c>
@@ -6982,7 +7006,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>612</v>
       </c>
@@ -7002,7 +7026,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -7016,7 +7040,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>18</v>
       </c>
@@ -7030,7 +7054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -7044,7 +7068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -7066,27 +7090,108 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2CE6-AB4F-4A20-AF83-BCA07543D2DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A14 F1:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7123,11 +7228,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F13" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F14" si="0">(D2-E2)/D2</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7148,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7169,7 +7274,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7190,7 +7295,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7211,7 +7316,7 @@
         <v>0.40425531914893614</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7232,7 +7337,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7253,7 +7358,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7274,7 +7379,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7295,7 +7400,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7316,7 +7421,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7337,7 +7442,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -7358,58 +7463,79 @@
         <v>-0.76923076923076927</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
-        <f>SUM(B2:B13)</f>
-        <v>196</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(C2:C13)</f>
+      <c r="B15" s="2">
+        <f>SUM(B2:B14)</f>
+        <v>197</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C2:C14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="2">
-        <f>SUM(D2:D13)</f>
-        <v>271</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>187</v>
-      </c>
-      <c r="F14" s="3">
-        <f>(D14-E14)/D14</f>
-        <v>0.30996309963099633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B15" s="2">
-        <f>AVERAGE(B2:B13)</f>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE(C2:C13)</f>
-        <v>0.41666666666666669</v>
-      </c>
       <c r="D15" s="2">
-        <f>AVERAGE(D2:D13)</f>
-        <v>22.583333333333332</v>
+        <f>SUM(D2:D14)</f>
+        <v>272</v>
       </c>
       <c r="E15" s="2">
-        <f>AVERAGE(E2:E13)</f>
-        <v>15.583333333333334</v>
+        <f>SUM(E2:E14)</f>
+        <v>188</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.30996309963099627</v>
+        <v>0.30882352941176472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE(B2:B14)</f>
+        <v>15.153846153846153</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE(C2:C14)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D14)</f>
+        <v>20.923076923076923</v>
+      </c>
+      <c r="E16" s="2">
+        <f>AVERAGE(E2:E14)</f>
+        <v>14.461538461538462</v>
+      </c>
+      <c r="F16" s="3">
+        <f>(D16-E16)/D16</f>
+        <v>0.30882352941176472</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="F2:F14">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -7431,20 +7557,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7464,7 +7590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7484,7 +7610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7498,7 +7624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -7518,7 +7644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7538,7 +7664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -7552,7 +7678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7572,7 +7698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -7586,7 +7712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -7600,7 +7726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -7649,20 +7775,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7682,7 +7808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7702,7 +7828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -7722,7 +7848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7736,7 +7862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7756,7 +7882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7776,7 +7902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -7790,7 +7916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7804,7 +7930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -7818,7 +7944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7832,7 +7958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -7846,7 +7972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7860,7 +7986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -7874,7 +8000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -7894,7 +8020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -7908,7 +8034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -7928,7 +8054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7942,7 +8068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -7956,7 +8082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -7976,7 +8102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7996,7 +8122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -8010,7 +8136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -8030,7 +8156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>29</v>
       </c>
@@ -8044,7 +8170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -8058,7 +8184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8072,7 +8198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -8086,7 +8212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -8100,7 +8226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -8153,20 +8279,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8186,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -8206,7 +8332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -8220,7 +8346,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -8240,7 +8366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -8254,7 +8380,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -8268,7 +8394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -8282,7 +8408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -8296,7 +8422,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -8310,7 +8436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8324,7 +8450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -8338,7 +8464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8358,7 +8484,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -8378,7 +8504,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -8392,7 +8518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -8406,7 +8532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -8420,7 +8546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -8440,7 +8566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -8454,7 +8580,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -8474,7 +8600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -8494,7 +8620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -8508,7 +8634,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -8522,7 +8648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -8542,7 +8668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8562,7 +8688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -8576,7 +8702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -8596,7 +8722,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -8610,7 +8736,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8630,7 +8756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -8644,7 +8770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -8658,7 +8784,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8678,7 +8804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -8692,7 +8818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -8706,7 +8832,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -8720,7 +8846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>21</v>
       </c>
@@ -8734,7 +8860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -8754,7 +8880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -8774,7 +8900,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -8794,7 +8920,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8814,7 +8940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -8834,7 +8960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -8848,7 +8974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -8862,7 +8988,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -8876,7 +9002,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -8890,7 +9016,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -8910,7 +9036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -8924,7 +9050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -8959,20 +9085,20 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +9118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -9012,7 +9138,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9026,7 +9152,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -9046,7 +9172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -9060,7 +9186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -9074,7 +9200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -9088,7 +9214,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9102,7 +9228,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -9122,7 +9248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9136,7 +9262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -9150,7 +9276,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9164,7 +9290,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -9184,7 +9310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9204,7 +9330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9218,7 +9344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -9238,7 +9364,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9252,7 +9378,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>204</v>
       </c>
@@ -9266,7 +9392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -9280,7 +9406,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -9300,7 +9426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -9320,7 +9446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9334,7 +9460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>227</v>
       </c>
@@ -9348,7 +9474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -9368,7 +9494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -9382,7 +9508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -9402,7 +9528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -9416,7 +9542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>204</v>
       </c>
@@ -9430,7 +9556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>20</v>
       </c>
@@ -9444,7 +9570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -9464,7 +9590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -9484,7 +9610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -9498,7 +9624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -9518,7 +9644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -9532,7 +9658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -9552,7 +9678,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -9566,7 +9692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -9586,7 +9712,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -9600,7 +9726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -9620,7 +9746,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -9640,7 +9766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -9654,7 +9780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>204</v>
       </c>
@@ -9668,7 +9794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -9682,7 +9808,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -9696,7 +9822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -9716,7 +9842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -9730,7 +9856,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>204</v>
       </c>
@@ -9744,7 +9870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -9758,7 +9884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -9778,7 +9904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -9792,7 +9918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>204</v>
       </c>
@@ -9806,7 +9932,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -9820,7 +9946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -9834,7 +9960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9854,7 +9980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>29</v>
       </c>
@@ -9868,7 +9994,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -9888,7 +10014,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9908,7 +10034,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>227</v>
       </c>
@@ -9922,7 +10048,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -9936,7 +10062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>276</v>
       </c>
@@ -9956,7 +10082,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>14</v>
       </c>
@@ -9970,7 +10096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -9990,7 +10116,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -10010,7 +10136,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -10030,7 +10156,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -10050,7 +10176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -10064,7 +10190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>204</v>
       </c>
@@ -10078,7 +10204,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>20</v>
       </c>
@@ -10092,7 +10218,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -10112,7 +10238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -10126,7 +10252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>204</v>
       </c>
@@ -10140,7 +10266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>20</v>
       </c>
@@ -10154,7 +10280,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -10174,7 +10300,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -10188,7 +10314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
@@ -10202,7 +10328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>20</v>
       </c>
@@ -10231,20 +10357,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10264,7 +10390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -10284,7 +10410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10298,7 +10424,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -10312,7 +10438,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -10332,7 +10458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -10352,7 +10478,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -10372,7 +10498,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -10386,7 +10512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -10406,7 +10532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -10420,7 +10546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -10440,7 +10566,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10454,7 +10580,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -10468,7 +10594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -10482,7 +10608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -10502,7 +10628,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -10516,7 +10642,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -10530,7 +10656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -10544,7 +10670,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -10558,7 +10684,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -10578,7 +10704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -10598,7 +10724,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10612,7 +10738,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -10626,7 +10752,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -10646,7 +10772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -10666,7 +10792,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10686,7 +10812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -10706,7 +10832,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10726,7 +10852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -10740,7 +10866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -10754,7 +10880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -10768,7 +10894,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -10782,7 +10908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10796,7 +10922,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -10816,7 +10942,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>227</v>
       </c>
@@ -10830,7 +10956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -10850,7 +10976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10864,7 +10990,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>18</v>
       </c>
@@ -10878,7 +11004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -10892,7 +11018,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>21</v>
       </c>
@@ -10906,7 +11032,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -10926,7 +11052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10940,7 +11066,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -10960,7 +11086,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -10974,7 +11100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10994,7 +11120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -11008,7 +11134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -11028,7 +11154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -11042,7 +11168,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -11062,7 +11188,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>227</v>
       </c>
@@ -11076,7 +11202,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -11090,7 +11216,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -11110,7 +11236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>14</v>
       </c>
@@ -11124,7 +11250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -11138,7 +11264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -11152,7 +11278,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -11172,7 +11298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -11186,7 +11312,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>227</v>
       </c>
@@ -11200,7 +11326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -11214,7 +11340,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>14</v>
       </c>
@@ -11228,7 +11354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -11248,7 +11374,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -11268,7 +11394,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>379</v>
       </c>
@@ -11285,7 +11411,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>381</v>
       </c>
@@ -11380,20 +11506,20 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11413,7 +11539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -11433,7 +11559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11447,7 +11573,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -11461,7 +11587,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -11475,7 +11601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -11489,7 +11615,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -11509,7 +11635,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -11523,7 +11649,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -11540,7 +11666,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>391</v>
       </c>
@@ -11560,7 +11686,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11574,7 +11700,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11588,7 +11714,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>394</v>
       </c>
@@ -11608,7 +11734,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -11622,7 +11748,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -11636,7 +11762,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11650,7 +11776,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -11664,7 +11790,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11684,7 +11810,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>227</v>
       </c>
@@ -11698,7 +11824,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -11718,7 +11844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -11738,7 +11864,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11752,7 +11878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -11769,7 +11895,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -11789,7 +11915,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -11809,7 +11935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -11823,7 +11949,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -11837,7 +11963,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -11857,7 +11983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -11877,7 +12003,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>227</v>
       </c>
@@ -11891,7 +12017,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -11905,7 +12031,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -11919,7 +12045,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -11939,7 +12065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -11953,7 +12079,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>18</v>
       </c>
@@ -11967,7 +12093,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -11981,7 +12107,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>21</v>
       </c>
@@ -11995,7 +12121,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>424</v>
       </c>
@@ -12015,7 +12141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -12035,7 +12161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -12049,7 +12175,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>427</v>
       </c>
@@ -12069,7 +12195,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -12083,7 +12209,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>354</v>
       </c>
@@ -12103,7 +12229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -12117,7 +12243,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -12131,7 +12257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>18</v>
       </c>
@@ -12145,7 +12271,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12159,7 +12285,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>176</v>
       </c>
@@ -12179,7 +12305,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -12193,7 +12319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>14</v>
       </c>
@@ -12207,7 +12333,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>18</v>
       </c>
@@ -12221,7 +12347,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -12235,7 +12361,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -12255,7 +12381,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>227</v>
       </c>
@@ -12269,7 +12395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12283,7 +12409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -12303,7 +12429,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
@@ -12317,7 +12443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -12331,7 +12457,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>438</v>
       </c>
@@ -12351,7 +12477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -12365,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -12379,7 +12505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12393,7 +12519,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>21</v>
       </c>
@@ -12407,7 +12533,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>368</v>
       </c>
@@ -12427,7 +12553,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -12441,7 +12567,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>14</v>
       </c>
@@ -12455,7 +12581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -12475,7 +12601,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>15</v>
       </c>
@@ -12489,7 +12615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>14</v>
       </c>
@@ -12503,7 +12629,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -12523,7 +12649,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>451</v>
       </c>
@@ -12537,7 +12663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -12571,20 +12697,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12604,7 +12730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -12624,7 +12750,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12638,7 +12764,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -12658,7 +12784,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -12672,7 +12798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -12692,7 +12818,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -12706,7 +12832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -12720,7 +12846,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -12734,7 +12860,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -12748,7 +12874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12762,7 +12888,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -12776,7 +12902,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -12793,7 +12919,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>422</v>
       </c>
@@ -12804,7 +12930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -12824,7 +12950,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -12844,7 +12970,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -12864,7 +12990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -12878,7 +13004,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -12892,7 +13018,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -12906,7 +13032,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -12920,7 +13046,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -12940,7 +13066,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12960,7 +13086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>227</v>
       </c>
@@ -12974,7 +13100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -12988,7 +13114,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13002,7 +13128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -13022,7 +13148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -13042,7 +13168,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>227</v>
       </c>
@@ -13056,7 +13182,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -13070,7 +13196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -13084,7 +13210,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -13098,7 +13224,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -13112,7 +13238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -13139,21 +13265,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13173,7 +13299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>581</v>
       </c>
@@ -13193,7 +13319,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -13207,7 +13333,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -13221,7 +13347,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -13235,7 +13361,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -13255,7 +13381,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -13269,7 +13395,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -13283,7 +13409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -13303,7 +13429,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>227</v>
       </c>
@@ -13317,7 +13443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -13337,7 +13463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -13357,7 +13483,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -13371,7 +13497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -13391,7 +13517,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -13411,7 +13537,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -13431,7 +13557,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -13451,7 +13577,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>227</v>
       </c>
@@ -13465,7 +13591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13479,7 +13605,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
       </c>
@@ -13493,7 +13619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -13513,7 +13639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>227</v>
       </c>
@@ -13527,7 +13653,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -13547,7 +13673,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -13561,7 +13687,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6953" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2513AD44-030A-41D9-900E-25B649ABD523}"/>
+  <xr:revisionPtr revIDLastSave="6973" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC0C5B4-60C8-42E3-9101-B88D11239302}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="6555" yWindow="5535" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="624">
   <si>
     <t>ROUND</t>
   </si>
@@ -1908,6 +1908,18 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Lulu Sun (NEW ZEALAND)</t>
+  </si>
+  <si>
+    <t>Maya Joint (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-3</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2521,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2647,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,7 +3182,7 @@
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,7 +4585,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F247D65-643F-42A4-99D6-5F5D9139942B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4597,7 +4609,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8577792" cy="5836708"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6406,8 +6418,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7094,18 +7106,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" activeCellId="1" sqref="E2 E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -7162,6 +7174,54 @@
       </c>
       <c r="F3" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7177,8 +7237,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A14 F1:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7468,20 +7528,20 @@
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7490,7 +7550,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -7498,15 +7558,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.30882352941176472</v>
+        <v>0.31021897810218979</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7515,7 +7575,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>15.153846153846153</v>
+        <v>15.23076923076923</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -7523,15 +7583,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.923076923076923</v>
+        <v>21.076923076923077</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>14.461538461538462</v>
+        <v>14.538461538461538</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.30882352941176472</v>
+        <v>0.31021897810218979</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6973" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC0C5B4-60C8-42E3-9101-B88D11239302}"/>
+  <xr:revisionPtr revIDLastSave="7039" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F2E313-19C1-4ABA-A408-9B5C2CBD3B5F}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="5535" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -27,8 +27,6 @@
     <sheet name="2024" sheetId="39" r:id="rId12"/>
     <sheet name="2025" sheetId="40" r:id="rId13"/>
     <sheet name="Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId15"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="632">
   <si>
     <t>ROUND</t>
   </si>
@@ -1920,6 +1918,30 @@
   </si>
   <si>
     <t>6-2 3-6 6-2</t>
+  </si>
+  <si>
+    <t>Nastia Pavlyuchenkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 3-6 6-2</t>
+  </si>
+  <si>
+    <t>Donna Vekić (CROATIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-5 6-3 </t>
+  </si>
+  <si>
+    <t>5-7 7-6(7) 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(2)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -2521,14 +2543,14 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18A7-49D8-AD54-C94061626C8E}"/>
+              <c16:uniqueId val="{00000000-1A0C-499F-A43E-AACC31E52CA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,14 +2669,14 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-18A7-49D8-AD54-C94061626C8E}"/>
+              <c16:uniqueId val="{00000001-1A0C-499F-A43E-AACC31E52CA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2956,6 +2978,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3182,7 +3209,7 @@
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,7 +3217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B860-494E-AE1D-760921E8E17C}"/>
+              <c16:uniqueId val="{00000001-F0E5-4388-BA90-8786FC604AD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3492,6 +3519,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4581,47 +4613,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F247D65-643F-42A4-99D6-5F5D9139942B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49B4B95B-68F5-4519-9345-6CAC47C64453}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B18EF5-500E-5068-3AD1-04BA2A85AA49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E328435-DF59-F3A1-DCA7-D3098D2C9F07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4634,27 +4650,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B693BEB6-7AF7-F39A-FE8D-6368134D77BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142996E0-3342-62DB-3A74-F5B5596055E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4662,12 +4681,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7106,18 +7125,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" activeCellId="1" sqref="E2 E5:E6"/>
+      <selection activeCell="E19" activeCellId="4" sqref="E2 E5:E6 E11:E12 E15:E16 E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -7224,7 +7243,186 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>624</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>625</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>619</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7238,7 +7436,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7528,20 +7726,20 @@
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7550,7 +7748,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -7558,15 +7756,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.31021897810218979</v>
+        <v>0.31316725978647686</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7575,7 +7773,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>15.23076923076923</v>
+        <v>15.538461538461538</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -7583,15 +7781,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.076923076923077</v>
+        <v>21.615384615384617</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>14.538461538461538</v>
+        <v>14.846153846153847</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.31021897810218979</v>
+        <v>0.31316725978647686</v>
       </c>
     </row>
   </sheetData>
@@ -7606,6 +7804,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7039" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F2E313-19C1-4ABA-A408-9B5C2CBD3B5F}"/>
+  <xr:revisionPtr revIDLastSave="7085" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24677229-6887-422C-BCA1-F83E495E28AC}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19170" yWindow="10425" windowWidth="19230" windowHeight="10455" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="637">
   <si>
     <t>ROUND</t>
   </si>
@@ -1008,9 +1008,6 @@
     <t>Stefanie Vögele (SWITZERLAND)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>Petra Kvitová (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -1942,6 +1939,24 @@
   </si>
   <si>
     <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>3-6 7-5 6-4</t>
+  </si>
+  <si>
+    <t>CHALRESTON OPEN</t>
+  </si>
+  <si>
+    <t>6-3 7-6(7)</t>
+  </si>
+  <si>
+    <t>5-2 RETIRED</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2558,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2684,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,7 +3224,7 @@
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,7 +5225,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -5219,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5239,7 +5254,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -5258,7 +5273,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -5267,7 +5282,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -5287,18 +5302,18 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -5318,7 +5333,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5338,7 +5353,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -5347,18 +5362,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>515</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -5367,18 +5382,18 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>518</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -5398,7 +5413,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -5407,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -5421,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -5435,13 +5450,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
+        <v>523</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>524</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,18 +5470,18 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>526</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -5475,18 +5490,18 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
+        <v>528</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>529</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -5495,13 +5510,13 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5515,7 +5530,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5529,7 +5544,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -5543,7 +5558,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5557,18 +5572,18 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -5591,7 +5606,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -5605,18 +5620,18 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
+        <v>538</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
         <v>539</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -5625,7 +5640,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -5650,7 +5665,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -5659,7 +5674,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -5682,7 +5697,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5717,7 +5732,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -5726,7 +5741,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5741,7 +5756,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -5752,7 +5767,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -5761,7 +5776,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5776,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -5797,7 +5812,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5806,13 +5821,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5826,18 +5841,18 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5846,7 +5861,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -5857,7 +5872,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -5866,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5880,18 +5895,18 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -5911,7 +5926,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -5920,7 +5935,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -5934,13 +5949,13 @@
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,13 +5969,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,7 +6008,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -6008,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,7 +6031,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -6027,7 +6042,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -6036,7 +6051,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -6047,7 +6062,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -6056,13 +6071,13 @@
         <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6090,7 +6105,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -6110,7 +6125,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -6124,7 +6139,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -6152,13 +6167,13 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6166,7 +6181,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -6180,13 +6195,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6200,13 +6215,13 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6214,18 +6229,18 @@
         <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -6234,7 +6249,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -6248,13 +6263,13 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
+        <v>563</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
         <v>564</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,7 +6277,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -6276,13 +6291,13 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,18 +6305,18 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -6310,7 +6325,7 @@
         <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -6330,7 +6345,7 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6338,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -6352,13 +6367,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6377,7 +6392,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -6386,7 +6401,7 @@
         <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
@@ -6397,24 +6412,24 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
@@ -6437,8 +6452,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,7 +6488,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -6482,18 +6497,18 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -6508,7 +6523,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,13 +6531,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>577</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6536,18 +6551,18 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -6556,18 +6571,18 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -6582,12 +6597,12 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -6596,18 +6611,18 @@
         <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -6616,7 +6631,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -6636,18 +6651,18 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -6667,7 +6682,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -6676,7 +6691,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -6687,7 +6702,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -6696,13 +6711,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,18 +6725,18 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>592</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -6730,7 +6745,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -6750,7 +6765,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6758,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -6769,7 +6784,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -6778,7 +6793,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>17</v>
@@ -6789,7 +6804,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B32" t="s">
         <v>247</v>
@@ -6798,7 +6813,7 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6812,13 +6827,13 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6826,13 +6841,13 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
+        <v>594</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
         <v>595</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,7 +6861,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -6857,7 +6872,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -6866,18 +6881,18 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
         <v>598</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -6886,18 +6901,18 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
+        <v>599</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
         <v>600</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -6906,13 +6921,13 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,7 +6935,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
@@ -6940,13 +6955,13 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
+        <v>603</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
         <v>604</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6960,12 +6975,12 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -6974,7 +6989,7 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -6988,7 +7003,7 @@
         <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
@@ -6999,7 +7014,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -7008,18 +7023,18 @@
         <v>227</v>
       </c>
       <c r="D51" t="s">
+        <v>606</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>607</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -7028,18 +7043,18 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
+        <v>609</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
         <v>610</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -7048,7 +7063,7 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -7062,13 +7077,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7076,7 +7091,7 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -7090,7 +7105,7 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -7104,13 +7119,13 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -7125,10 +7140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" activeCellId="4" sqref="E2 E5:E6 E11:E12 E15:E16 E19:E21"/>
+      <selection activeCell="E35" activeCellId="8" sqref="E3 E7 E9 E13 E17 E22 E25 E28 E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7163,7 +7178,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -7172,7 +7187,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7186,18 +7201,18 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -7206,13 +7221,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7220,13 +7235,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7234,7 +7249,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -7254,7 +7269,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -7265,7 +7280,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -7274,13 +7289,13 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7288,13 +7303,13 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7302,7 +7317,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
@@ -7313,7 +7328,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -7322,7 +7337,7 @@
         <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -7336,13 +7351,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>625</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7361,7 +7376,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -7370,13 +7385,13 @@
         <v>227</v>
       </c>
       <c r="D19" t="s">
+        <v>626</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>627</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7384,13 +7399,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7398,7 +7413,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -7412,13 +7427,171 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>630</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" t="s">
+        <v>631</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>633</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>631</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>636</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7436,7 +7609,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7726,20 +7899,20 @@
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7748,7 +7921,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -7756,24 +7929,24 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.31316725978647686</v>
+        <v>0.3217993079584775</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>15.538461538461538</v>
+        <v>15.76923076923077</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -7781,15 +7954,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.615384615384617</v>
+        <v>22.23076923076923</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>14.846153846153847</v>
+        <v>15.076923076923077</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.31316725978647686</v>
+        <v>0.3217993079584775</v>
       </c>
     </row>
   </sheetData>
@@ -8841,7 +9014,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -9667,7 +9840,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -10807,7 +10980,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -10884,7 +11057,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10898,7 +11071,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10920,7 +11093,7 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -10934,7 +11107,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
@@ -10954,7 +11127,7 @@
         <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>17</v>
@@ -10965,7 +11138,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -10974,13 +11147,13 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10988,13 +11161,13 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11002,7 +11175,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>17</v>
@@ -11013,7 +11186,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -11033,7 +11206,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -11042,18 +11215,18 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>332</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -11062,7 +11235,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>17</v>
@@ -11088,7 +11261,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11102,7 +11275,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -11116,7 +11289,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -11130,7 +11303,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -11150,7 +11323,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,7 +11331,7 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -11178,7 +11351,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11192,13 +11365,13 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -11206,7 +11379,7 @@
         <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>17</v>
@@ -11217,7 +11390,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -11226,7 +11399,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -11268,13 +11441,13 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
         <v>348</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11282,18 +11455,18 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -11302,7 +11475,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -11316,7 +11489,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>17</v>
@@ -11327,7 +11500,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -11336,13 +11509,13 @@
         <v>28</v>
       </c>
       <c r="D60" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>355</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11350,7 +11523,7 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>17</v>
@@ -11384,7 +11557,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>17</v>
@@ -11404,7 +11577,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -11418,13 +11591,13 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>360</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -11438,13 +11611,13 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
         <v>362</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -11452,7 +11625,7 @@
         <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -11472,7 +11645,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -11486,7 +11659,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -11500,7 +11673,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -11514,7 +11687,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -11539,7 +11712,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
@@ -11548,7 +11721,7 @@
         <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
@@ -11562,13 +11735,13 @@
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11576,7 +11749,7 @@
         <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -11596,7 +11769,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11604,7 +11777,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>17</v>
@@ -11615,7 +11788,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
@@ -11624,7 +11797,7 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>17</v>
@@ -11635,7 +11808,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -11644,41 +11817,41 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -11800,7 +11973,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -11809,7 +11982,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -11837,7 +12010,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -11851,7 +12024,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -11865,7 +12038,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -11885,13 +12058,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11899,35 +12072,35 @@
         <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -11936,7 +12109,7 @@
         <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -11950,13 +12123,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11964,18 +12137,18 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -11984,13 +12157,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11998,13 +12171,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
         <v>398</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12012,13 +12185,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>400</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12032,7 +12205,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12040,18 +12213,18 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>395</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -12060,13 +12233,13 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12074,13 +12247,13 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12128,7 +12301,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -12139,24 +12312,24 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>406</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -12165,7 +12338,7 @@
         <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -12176,7 +12349,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -12185,7 +12358,7 @@
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -12199,13 +12372,13 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
+        <v>408</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>409</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -12219,12 +12392,12 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -12233,7 +12406,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -12253,13 +12426,13 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
+        <v>413</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
         <v>414</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12273,7 +12446,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -12281,13 +12454,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -12295,13 +12468,13 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -12315,7 +12488,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -12335,7 +12508,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,7 +12516,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -12357,13 +12530,13 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
+        <v>421</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
         <v>422</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -12371,18 +12544,18 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
         <v>418</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s">
         <v>247</v>
@@ -12391,7 +12564,7 @@
         <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -12411,7 +12584,7 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -12425,18 +12598,18 @@
         <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -12465,12 +12638,12 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -12479,7 +12652,7 @@
         <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -12493,13 +12666,13 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12507,7 +12680,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -12521,13 +12694,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12569,7 +12742,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -12583,7 +12756,7 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -12603,7 +12776,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -12611,7 +12784,7 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -12631,13 +12804,13 @@
         <v>41</v>
       </c>
       <c r="D72" t="s">
+        <v>432</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
         <v>433</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12645,7 +12818,7 @@
         <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -12659,7 +12832,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
@@ -12670,7 +12843,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -12679,13 +12852,13 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -12693,7 +12866,7 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
@@ -12713,12 +12886,12 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
@@ -12727,7 +12900,7 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -12741,7 +12914,7 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
@@ -12755,7 +12928,7 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -12769,13 +12942,13 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
         <v>440</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12783,18 +12956,18 @@
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -12803,13 +12976,13 @@
         <v>227</v>
       </c>
       <c r="D86" t="s">
+        <v>442</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
         <v>443</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12817,13 +12990,13 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12831,7 +13004,7 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
@@ -12842,7 +13015,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
@@ -12851,13 +13024,13 @@
         <v>227</v>
       </c>
       <c r="D90" t="s">
+        <v>445</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
         <v>446</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -12865,7 +13038,7 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>16</v>
@@ -12879,41 +13052,41 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
       </c>
       <c r="C94" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" t="s">
+        <v>569</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>451</v>
-      </c>
-      <c r="D94" t="s">
-        <v>570</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>16</v>
@@ -12924,22 +13097,22 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -12956,7 +13129,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12991,7 +13164,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -13000,13 +13173,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13020,12 +13193,12 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -13034,13 +13207,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>459</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13068,7 +13241,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -13102,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -13110,13 +13283,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>462</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13138,13 +13311,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -13152,35 +13325,35 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>467</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -13191,7 +13364,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -13200,18 +13373,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
         <v>469</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -13220,18 +13393,18 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -13240,7 +13413,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -13254,13 +13427,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>474</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13268,13 +13441,13 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>476</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13288,7 +13461,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13296,13 +13469,13 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>479</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13316,13 +13489,13 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -13350,7 +13523,7 @@
         <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -13370,7 +13543,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13378,7 +13551,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -13389,7 +13562,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -13398,7 +13571,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -13418,13 +13591,13 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
+        <v>483</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
         <v>484</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13432,13 +13605,13 @@
         <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13446,7 +13619,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -13466,7 +13639,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13480,7 +13653,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13488,7 +13661,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -13502,7 +13675,7 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
@@ -13560,7 +13733,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -13569,13 +13742,13 @@
         <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13583,13 +13756,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13597,13 +13770,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -13611,18 +13784,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -13631,13 +13804,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>494</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13651,7 +13824,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -13659,7 +13832,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -13679,7 +13852,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -13693,7 +13866,7 @@
         <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -13704,7 +13877,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -13713,13 +13886,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>499</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -13733,13 +13906,13 @@
         <v>227</v>
       </c>
       <c r="D16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>501</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -13773,12 +13946,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -13787,7 +13960,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -13798,7 +13971,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -13807,7 +13980,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -13827,13 +14000,13 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13841,7 +14014,7 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -13869,7 +14042,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -13889,7 +14062,7 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -13903,7 +14076,7 @@
         <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
@@ -13914,7 +14087,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -13923,7 +14096,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -13943,7 +14116,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13951,7 +14124,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7085" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24677229-6887-422C-BCA1-F83E495E28AC}"/>
+  <xr:revisionPtr revIDLastSave="7166" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E623FB-A7CA-470D-AAD5-2F994782140B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19170" yWindow="10425" windowWidth="19230" windowHeight="10455" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="649">
   <si>
     <t>ROUND</t>
   </si>
@@ -1957,6 +1957,42 @@
   </si>
   <si>
     <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>GERMAN OPEN</t>
+  </si>
+  <si>
+    <t>5-7 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Erika Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Ajla Tomljanović</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Kimberly Birrell (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>Jessica Bouzas Maneiro (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2594,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,7 +2720,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3260,7 @@
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,10 +4741,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5696,8 +5728,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,7 +6484,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -7140,18 +7172,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" activeCellId="8" sqref="E3 E7 E9 E13 E17 E22 E25 E28 E35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E54" activeCellId="14" sqref="E3 E7 E9 E13 E17 E22 E25 E28 E35 E38 E41 E45 E49 E51 E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -7552,7 +7584,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -7566,7 +7598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -7580,7 +7612,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -7592,6 +7624,224 @@
       </c>
       <c r="F35" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>619</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>623</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>638</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" t="s">
+        <v>399</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>640</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>642</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>643</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>644</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>423</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>645</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>647</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -7899,20 +8149,20 @@
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7921,7 +8171,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -7929,15 +8179,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.3217993079584775</v>
+        <v>0.31525423728813562</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7946,7 +8196,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>15.76923076923077</v>
+        <v>16.23076923076923</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -7954,15 +8204,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>22.23076923076923</v>
+        <v>22.692307692307693</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>15.076923076923077</v>
+        <v>15.538461538461538</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.3217993079584775</v>
+        <v>0.31525423728813562</v>
       </c>
     </row>
   </sheetData>
@@ -13128,8 +13378,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13697,7 +13947,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sonya Kenin.xlsx
+++ b/Tennis/WTA Tour/Sonya Kenin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7166" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E623FB-A7CA-470D-AAD5-2F994782140B}"/>
+  <xr:revisionPtr revIDLastSave="7202" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B380936A-D936-4A0B-AF77-2F7B65C5E232}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="651">
   <si>
     <t>ROUND</t>
   </si>
@@ -1993,6 +1993,12 @@
   </si>
   <si>
     <t>6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-7(7) 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Victoria Mboko (CANADA)</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2600,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2726,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3266,7 @@
                   <c:v>-0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.375</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6485,7 +6491,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,10 +7178,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E54" activeCellId="14" sqref="E3 E7 E9 E13 E17 E22 E25 E28 E35 E38 E41 E45 E49 E51 E54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E63" activeCellId="18" sqref="E3 E7 E9 E13 E17 E22 E25 E28 E35 E38 E41 E45 E49 E51 E54 E57 E59 E61 E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7842,6 +7848,101 @@
       </c>
       <c r="F54" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" t="s">
+        <v>650</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>638</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>591</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8149,20 +8250,20 @@
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,7 +8272,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8179,15 +8280,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.31525423728813562</v>
+        <v>0.30405405405405406</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,7 +8297,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>16.23076923076923</v>
+        <v>16.53846153846154</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -8204,15 +8305,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>22.692307692307693</v>
+        <v>22.76923076923077</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>15.538461538461538</v>
+        <v>15.846153846153847</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.31525423728813562</v>
+        <v>0.30405405405405406</v>
       </c>
     </row>
   </sheetData>
